--- a/Datasheets.xlsx
+++ b/Datasheets.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -141,7 +141,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -799,11 +798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1243858288"/>
-        <c:axId val="-1243865360"/>
+        <c:axId val="1896213776"/>
+        <c:axId val="1896207792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1243865360"/>
+        <c:axId val="1896207792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +856,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -905,12 +903,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1243858288"/>
+        <c:crossAx val="1896213776"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1243858288"/>
+        <c:axId val="1896213776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +951,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1001,7 +998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1243865360"/>
+        <c:crossAx val="1896207792"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1107,19 +1104,9 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.9247594050743664E-2"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.8580857392825898"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1138,10 +1125,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$1:$A$202</c:f>
+              <c:f>Sheet2!$A$1:$A$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="202"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1149,614 +1136,917 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.194174714852</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.39793928153800001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.398384639993</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.59392629191299995</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.78512104228099999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.78527964651600002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>0.79632233828300003</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.98510328680299997</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1.1858590878499999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1.19249112904</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1.39684164897</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.5760872513099999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.58889014274</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
+                  <c:v>1.58972814679</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.7924671992700001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1.9496655091599999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1.9737536087600001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>2.1847307682000001</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>2.3424545302999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
+                  <c:v>2.3435195908000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>2.3730108514400001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>2.55853720009</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>2.7226373553299998</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>2.7875656262000001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>2.9733600094899999</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
+                  <c:v>3.12233287841</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>3.1355991959599998</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>3.1772337853899999</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>3.3603873103900002</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>3.49227003753</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>3.5667695105099999</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>3.7856560200499998</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
+                  <c:v>3.8536984473499998</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>3.8625318556999999</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>3.9684657007499999</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>4.1569560766200002</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>4.2672116309400003</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>4.3768018484100004</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>4.5715164393199998</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
+                  <c:v>4.6061556786300004</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>4.61535342038</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="44">
                   <c:v>4.77931499481</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>4.9465171992799997</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>5.00646643341</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
                   <c:v>5.1605574786700004</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="48">
+                  <c:v>5.3311854600900004</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>5.3550425916900002</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="50">
                   <c:v>5.38918860257</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="51">
                   <c:v>5.5520251393300004</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="52">
                   <c:v>5.7470086962</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="53">
                   <c:v>5.7596419006600001</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="54">
                   <c:v>5.94842657447</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="55">
+                  <c:v>6.02288506925</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>6.1141394078699998</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="57">
                   <c:v>6.1596941202900002</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="58">
                   <c:v>6.3661403954000004</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="59">
                   <c:v>6.4772576093699996</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>6.5466552972800001</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>6.7147158086300003</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>6.7307464778400004</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>6.8310596048800001</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>6.9411933422100001</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>7.1675859391700003</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>7.16887935996</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>7.3505960404900001</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
+                  <c:v>7.4646994471500001</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>7.5469382107299996</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="70">
                   <c:v>7.5527459383000002</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="71">
                   <c:v>7.7263131737700004</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="72">
                   <c:v>7.9292826354499999</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="73">
                   <c:v>7.9634889960299997</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="74">
+                  <c:v>8.0996342003299997</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>8.12417864799</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="76">
                   <c:v>8.2402460277100005</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="77">
                   <c:v>8.3580836653699997</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="78">
                   <c:v>8.5701450705499997</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="79">
                   <c:v>8.6368195712600002</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="80">
                   <c:v>8.7157011032099998</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="81">
+                  <c:v>8.7467186152899998</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>8.9415967464400001</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="83">
                   <c:v>8.9483954012400009</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="84">
                   <c:v>9.1264292597800001</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="85">
                   <c:v>9.3606032431100008</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="86">
                   <c:v>9.3626268207999992</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="87">
+                  <c:v>9.4496212899700005</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>9.5303341746299992</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="89">
                   <c:v>9.6632309258000006</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="90">
                   <c:v>9.6936851739899996</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="91">
                   <c:v>9.9128395318999996</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="92">
                   <c:v>9.99718755484</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="93">
+                  <c:v>10.1132549345</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>10.1416148245</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="95">
                   <c:v>10.3075586259</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="96">
                   <c:v>10.382410138799999</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="97">
                   <c:v>10.539211332800001</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="98">
                   <c:v>10.718511045</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="99">
                   <c:v>10.7266910374</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="100">
+                  <c:v>10.770766437100001</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>10.9144069254</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="102">
                   <c:v>11.0330060124</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="103">
                   <c:v>11.149459332199999</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="104">
                   <c:v>11.314560473</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="105">
                   <c:v>11.377099901399999</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="106">
+                  <c:v>11.391343921400001</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>11.5306973457</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="108">
                   <c:v>11.689912527800001</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="109">
                   <c:v>11.7016971111</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="110">
                   <c:v>11.9296260178</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="111">
+                  <c:v>11.9836620986</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>12.040948867799999</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="113">
                   <c:v>12.1441662312</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="114">
                   <c:v>12.276149541100001</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="115">
                   <c:v>12.3827770352</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="116">
                   <c:v>12.493211776000001</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="117">
+                  <c:v>12.588201463200001</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>12.6758441329</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="119">
                   <c:v>12.7024188638</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="120">
                   <c:v>12.895911932000001</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="121">
                   <c:v>13.030539452999999</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="122">
                   <c:v>13.1089776754</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="123">
+                  <c:v>13.221918046500001</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>13.2771372795</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="125">
                   <c:v>13.3755937219</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="126">
                   <c:v>13.531486689999999</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="127">
                   <c:v>13.650694489499999</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="128">
                   <c:v>13.748960197000001</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="129">
+                  <c:v>13.7797087431</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>13.883543014500001</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="131">
                   <c:v>14.013415575</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="132">
                   <c:v>14.054460823499999</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="133">
                   <c:v>14.309167861900001</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="134">
                   <c:v>14.3386825919</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="135">
+                  <c:v>14.423693716500001</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>14.489260315899999</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="137">
                   <c:v>14.6312907338</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="138">
                   <c:v>14.7162914276</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="139">
                   <c:v>14.895087480500001</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="140">
+                  <c:v>14.9519369006</c:v>
+                </c:pt>
+                <c:pt idx="141">
                   <c:v>14.9637803435</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="142">
                   <c:v>15.109680593</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="143">
                   <c:v>15.2712509036</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="144">
                   <c:v>15.290054678900001</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="145">
+                  <c:v>15.5023440719</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>15.5378133059</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="147">
                   <c:v>15.5803725123</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="148">
                   <c:v>15.695174038399999</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="149">
                   <c:v>15.8474713564</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="150">
                   <c:v>15.8760026097</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="151">
+                  <c:v>16.031029820400001</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>16.0815268755</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="153">
                   <c:v>16.205792128999999</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="154">
                   <c:v>16.242492198899999</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="155">
                   <c:v>16.439345479</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="156">
                   <c:v>16.539472341500002</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="157">
+                  <c:v>16.604027152099999</c:v>
+                </c:pt>
+                <c:pt idx="158">
                   <c:v>16.679888963700002</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="159">
                   <c:v>16.788627207299999</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="160">
                   <c:v>16.882580518699999</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="161">
                   <c:v>17.063316702800002</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="162">
                   <c:v>17.137971520400001</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="163">
+                  <c:v>17.139442265</c:v>
+                </c:pt>
+                <c:pt idx="164">
                   <c:v>17.2692045569</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="165">
                   <c:v>17.4363300204</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="166">
                   <c:v>17.495808005299999</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="167">
                   <c:v>17.648215591900001</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="168">
+                  <c:v>17.6599800587</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>17.712734639600001</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="170">
                   <c:v>17.888937890499999</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="171">
                   <c:v>18.034078180800002</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="172">
                   <c:v>18.0692568421</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="173">
+                  <c:v>18.212631344799998</c:v>
+                </c:pt>
+                <c:pt idx="174">
                   <c:v>18.251483142400001</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="175">
                   <c:v>18.2522520423</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="176">
                   <c:v>18.487901985600001</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="177">
                   <c:v>18.521741032600001</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="178">
+                  <c:v>18.649208545699999</c:v>
+                </c:pt>
+                <c:pt idx="179">
                   <c:v>18.664218485399999</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="180">
                   <c:v>18.835499882699999</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="181">
                   <c:v>18.8561946154</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="182">
                   <c:v>19.051784276999999</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="183">
+                  <c:v>19.144958257700001</c:v>
+                </c:pt>
+                <c:pt idx="184">
                   <c:v>19.2176029086</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="185">
                   <c:v>19.250380992899998</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="186">
                   <c:v>19.443149864700001</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="187">
                   <c:v>19.454641640199998</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="188">
                   <c:v>19.636507332299999</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="189">
+                  <c:v>19.666595757</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>19.712717831100001</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="191">
                   <c:v>19.8663726449</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="192">
                   <c:v>19.995565712499999</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="193">
+                  <c:v>20.159192383299999</c:v>
+                </c:pt>
+                <c:pt idx="194">
                   <c:v>20.2751353383</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="195">
                   <c:v>20.5541998148</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="196">
+                  <c:v>20.594201982000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>20.8384871483</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="198">
+                  <c:v>21.083462238300001</c:v>
+                </c:pt>
+                <c:pt idx="199">
                   <c:v>21.096970140900002</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="200">
                   <c:v>21.342393755900002</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="201">
+                  <c:v>21.554508805299999</c:v>
+                </c:pt>
+                <c:pt idx="202">
                   <c:v>21.648673713200001</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="203">
                   <c:v>21.962416172000001</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="204">
+                  <c:v>21.9955250621</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>22.230885922900001</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="206">
+                  <c:v>22.391542792300001</c:v>
+                </c:pt>
+                <c:pt idx="207">
                   <c:v>22.473841905600001</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="208">
                   <c:v>22.7805823088</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="209">
+                  <c:v>22.855642437899998</c:v>
+                </c:pt>
+                <c:pt idx="210">
                   <c:v>22.9377046227</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="211">
+                  <c:v>23.274670541300001</c:v>
+                </c:pt>
+                <c:pt idx="212">
                   <c:v>23.293434083499999</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="213">
                   <c:v>23.4794020653</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="214">
+                  <c:v>23.649856448200001</c:v>
+                </c:pt>
+                <c:pt idx="215">
                   <c:v>23.7497478724</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="216">
                   <c:v>23.990127444300001</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="217">
+                  <c:v>24.078704416800001</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>24.232697486900001</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="219">
                   <c:v>24.4838938117</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="220">
+                  <c:v>24.504065513600001</c:v>
+                </c:pt>
+                <c:pt idx="221">
                   <c:v>24.759414792099999</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="222">
+                  <c:v>24.9077290297</c:v>
+                </c:pt>
+                <c:pt idx="223">
                   <c:v>24.961751699400001</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="224">
                   <c:v>25.231289863600001</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="225">
+                  <c:v>25.249600410500001</c:v>
+                </c:pt>
+                <c:pt idx="226">
                   <c:v>25.509545206999999</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="227">
+                  <c:v>25.606006383899999</c:v>
+                </c:pt>
+                <c:pt idx="228">
                   <c:v>25.717386603400001</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="229">
                   <c:v>25.9230405092</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="230">
+                  <c:v>26.015183329599999</c:v>
+                </c:pt>
+                <c:pt idx="231">
                   <c:v>26.225847005799999</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="232">
+                  <c:v>26.376610994299998</c:v>
+                </c:pt>
+                <c:pt idx="233">
                   <c:v>26.419717073400001</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="234">
                   <c:v>26.653021574</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="235">
+                  <c:v>26.754912734000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>26.870548725100001</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="237">
+                  <c:v>27.163645625099999</c:v>
+                </c:pt>
+                <c:pt idx="238">
                   <c:v>27.185249328600001</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="239">
                   <c:v>27.384942769999999</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="240">
+                  <c:v>27.415937185299999</c:v>
+                </c:pt>
+                <c:pt idx="241">
                   <c:v>27.559721469900001</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="242">
+                  <c:v>27.748870849599999</c:v>
+                </c:pt>
+                <c:pt idx="243">
                   <c:v>27.812674641600001</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="244">
                   <c:v>27.9813349247</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="245">
+                  <c:v>28.132769465399999</c:v>
+                </c:pt>
+                <c:pt idx="246">
                   <c:v>28.2340824604</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="247">
+                  <c:v>28.4129977226</c:v>
+                </c:pt>
+                <c:pt idx="248">
                   <c:v>28.4778505564</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="249">
                   <c:v>28.626817464799998</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="250">
+                  <c:v>28.762894868899998</c:v>
+                </c:pt>
+                <c:pt idx="251">
                   <c:v>28.8916170597</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="252">
+                  <c:v>29.0322244167</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>29.068389535000001</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="254">
                   <c:v>29.334947466900001</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="255">
+                  <c:v>29.3443828821</c:v>
+                </c:pt>
+                <c:pt idx="256">
                   <c:v>29.463732242599999</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="257">
+                  <c:v>29.6147435904</c:v>
+                </c:pt>
+                <c:pt idx="258">
                   <c:v>29.682788252800002</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="259">
                   <c:v>29.8844575882</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>29.895153641699999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>30.2148282528</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>30.447858572000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>30.731093883500002</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>31.048020720499999</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>31.288748979600001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>31.557869911200001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>31.735277175899999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>32.007920742000003</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>32.272374630000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>32.497346401199998</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>32.739743590400003</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>32.899516820899997</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>33.1649512053</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>33.358648419399998</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>33.588263392400002</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>33.796268701599999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>33.995905518500003</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>34.204000234600002</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>34.390050172800002</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>34.619796276099997</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>34.735015034699998</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>34.866723418200003</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>35.115832090399998</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>35.235053300899999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>35.399696230899998</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>35.555711388600002</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>35.764864087100001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>35.934120416600003</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>35.975602269200003</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>36.165878176699998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>36.284884810400001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>36.486878991099999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>36.606276035299999</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>36.679351329799999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>36.890065669999998</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>36.937564611399999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>37.048396468200004</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>37.216892838500002</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>37.258365750300001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>37.449839711199999</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>37.5026494265</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>37.626898288699998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$1:$B$202</c:f>
+              <c:f>Sheet2!$B$1:$B$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="202"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>97.919619083399994</c:v>
                 </c:pt>
@@ -1764,609 +2054,912 @@
                   <c:v>97.919619083399994</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>96.595746278799993</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>97.635936737099996</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>97.541373968100004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>97.494089603399999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>97.446811199199999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>97.210401296599997</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>97.399526834499994</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>96.122932434099994</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>97.210401296599997</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>97.399526834499994</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>96.879434585599995</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>97.163122892399997</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>96.501183509800001</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>96.690309047699998</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
+                  <c:v>95.177304744699995</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>96.548461914100002</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>96.406620740899996</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>96.453899145099996</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>96.028369665100001</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>95.319151878400007</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>95.744681358299999</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>95.2245891094</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>95.366430282600007</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>95.130026340499995</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>95.413708686800007</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
+                  <c:v>91.725766658799998</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>94.468086957899999</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>95.177304744699995</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>94.089835882200006</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>93.522459268600002</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>93.475174903899998</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>92.860519886000006</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
+                  <c:v>88.794326782200002</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>92.671394348099994</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>92.955082654999998</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>91.773051023500003</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>91.111111640900006</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>91.489362716700001</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>89.739954471600001</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
+                  <c:v>85.815602541000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>89.550828933700004</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="44">
                   <c:v>89.881795644799993</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>89.172577857999997</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>88.321512937500003</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
                   <c:v>87.565010786100004</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="48">
+                  <c:v>81.371158361400006</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>85.768324136700002</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="50">
                   <c:v>84.822696447400006</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="51">
                   <c:v>83.167850971199996</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="52">
                   <c:v>83.451539277999998</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="53">
                   <c:v>82.2222232819</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="54">
                   <c:v>82.033097744000003</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="55">
+                  <c:v>75.697398185699996</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>78.817969560600005</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="57">
                   <c:v>79.527187347400002</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="58">
                   <c:v>77.399528026599995</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="59">
                   <c:v>74.704492092099997</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>76.926714181899996</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>69.692671298999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>74.799054861100004</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>72.434985637699995</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>73.522460460700003</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>68.085104227100004</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>72.104018926600006</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>69.929075241099994</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
+                  <c:v>63.829785585400003</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>66.288417577700002</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="70">
                   <c:v>68.416076898599997</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="71">
                   <c:v>66.855794191399994</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="72">
                   <c:v>61.3711595535</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="73">
                   <c:v>63.829785585400003</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="74">
+                  <c:v>58.1560254097</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>62.6004755497</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="76">
                   <c:v>59.7635924816</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="77">
                   <c:v>61.938536167099997</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="78">
                   <c:v>58.1560254097</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="79">
                   <c:v>53.806143999100001</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="80">
                   <c:v>56.501179933499998</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="81">
+                  <c:v>54.940897226300002</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>52.198582887599997</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="83">
                   <c:v>54.893618822100002</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="84">
                   <c:v>53.286051750200002</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="85">
                   <c:v>49.267140030900002</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="86">
                   <c:v>51.914894580800002</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="87">
+                  <c:v>49.030733108500002</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>51.3947963715</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="89">
                   <c:v>48.037824034700002</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="90">
                   <c:v>48.605200648299999</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="91">
                   <c:v>47.706854343400003</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="92">
                   <c:v>45.862883329399999</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="93">
+                  <c:v>44.633570313500002</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>46.146571636200001</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="95">
                   <c:v>45.2482283115</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="96">
                   <c:v>43.735224008599999</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="97">
                   <c:v>43.687942624100003</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="98">
                   <c:v>42.033097147900001</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="99">
                   <c:v>43.593379855199998</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="100">
+                  <c:v>41.040188074100001</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>41.087469458599998</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="102">
                   <c:v>39.952719211599998</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="103">
                   <c:v>41.323876380900003</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="104">
                   <c:v>40.000000596</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="105">
                   <c:v>39.2434984446</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="106">
+                  <c:v>38.392433524099999</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>39.196217060099997</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="108">
                   <c:v>37.304964661600003</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="109">
                   <c:v>38.912528753300002</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="110">
                   <c:v>37.635934352900001</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="111">
+                  <c:v>37.2576832771</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>36.737588047999999</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="113">
                   <c:v>37.115839123699999</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="114">
                   <c:v>36.217492818799997</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="115">
                   <c:v>35.744681954400001</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="116">
                   <c:v>36.028370261200003</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="117">
+                  <c:v>35.602837801</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>35.508275032</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="119">
                   <c:v>34.799054265000002</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="120">
                   <c:v>34.609928727099998</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="121">
                   <c:v>34.137114882500001</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="122">
                   <c:v>35.082742571799997</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="123">
+                  <c:v>34.799054265000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>33.806145191200002</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="125">
                   <c:v>33.617022633600001</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="126">
                   <c:v>32.813239097599997</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="127">
                   <c:v>31.678485870399999</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="128">
                   <c:v>32.955083250999998</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="129">
+                  <c:v>32.765957713100001</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>31.394800543799999</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="131">
                   <c:v>29.9290776253</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="132">
                   <c:v>32.009455561599999</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="133">
                   <c:v>30.354610085499999</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="134">
                   <c:v>30.354610085499999</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="135">
+                  <c:v>31.300237774799999</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>30.212765932100002</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="137">
                   <c:v>29.078012704799999</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="138">
                   <c:v>30.260047316600001</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="139">
                   <c:v>29.5035451651</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="140">
+                  <c:v>30.118203163099999</c:v>
+                </c:pt>
+                <c:pt idx="141">
                   <c:v>28.652483224899999</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="142">
                   <c:v>29.598107934000002</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="143">
                   <c:v>27.990543842299999</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="144">
                   <c:v>27.706855535500001</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="145">
+                  <c:v>28.1796693802</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>27.5177299976</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="147">
                   <c:v>26.524823904000002</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="148">
                   <c:v>26.572105288500001</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="149">
                   <c:v>26.193854212800002</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="150">
                   <c:v>27.423167228699999</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="151">
+                  <c:v>27.375885844199999</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>26.4775425196</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="153">
                   <c:v>25.484633445699998</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="154">
                   <c:v>24.822695553300001</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="155">
                   <c:v>25.531914830200002</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="156">
                   <c:v>25.059100985499999</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="157">
+                  <c:v>25.721040368099999</c:v>
+                </c:pt>
+                <c:pt idx="158">
                   <c:v>24.444444477600001</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="159">
                   <c:v>23.4988182783</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="160">
                   <c:v>25.106382369999999</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="161">
                   <c:v>24.6335700154</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="162">
                   <c:v>22.411347925699999</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="163">
+                  <c:v>25.106382369999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
                   <c:v>24.444444477600001</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="165">
                   <c:v>21.796689927599999</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="166">
                   <c:v>22.931441664699999</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="167">
                   <c:v>23.1205672026</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="168">
+                  <c:v>21.843971312000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>20.283688604799998</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="170">
                   <c:v>21.560283005199999</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="171">
                   <c:v>19.007092714300001</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="172">
                   <c:v>20.330969989300002</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="173">
+                  <c:v>21.087470650699998</c:v>
+                </c:pt>
+                <c:pt idx="174">
                   <c:v>19.007092714300001</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="175">
                   <c:v>20.7565009594</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="176">
                   <c:v>19.669030606700002</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="177">
                   <c:v>18.297871947299999</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="178">
+                  <c:v>19.810874760200001</c:v>
+                </c:pt>
+                <c:pt idx="179">
                   <c:v>20.7565009594</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="180">
                   <c:v>17.6832154393</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="181">
                   <c:v>18.8179671764</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="182">
                   <c:v>18.108746409399998</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="183">
+                  <c:v>19.148936867700002</c:v>
+                </c:pt>
+                <c:pt idx="184">
                   <c:v>15.035460889299999</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="185">
                   <c:v>17.163120210199999</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="186">
                   <c:v>17.2576829791</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="187">
                   <c:v>15.2718678117</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="188">
                   <c:v>16.406619548799998</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="189">
+                  <c:v>16.926713287799998</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>16.5011823177</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="191">
                   <c:v>15.697400271899999</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="192">
                   <c:v>14.9881795049</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="193">
+                  <c:v>16.359338164299999</c:v>
+                </c:pt>
+                <c:pt idx="194">
                   <c:v>13.8061463833</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="195">
                   <c:v>11.631205678000001</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="196">
+                  <c:v>14.6099284291</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>12.6241132617</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="198">
+                  <c:v>12.955082953</c:v>
+                </c:pt>
+                <c:pt idx="199">
                   <c:v>11.158392578400001</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="200">
                   <c:v>11.111111193899999</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="201">
+                  <c:v>11.4420801401</c:v>
+                </c:pt>
+                <c:pt idx="202">
                   <c:v>9.3617022037499993</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="203">
                   <c:v>8.5579194128499996</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="204">
+                  <c:v>12.1040187776</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>9.5035463571500003</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="206">
+                  <c:v>9.0307325124699993</c:v>
+                </c:pt>
+                <c:pt idx="207">
                   <c:v>7.4231676757300002</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="208">
                   <c:v>8.0851063132299998</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="209">
+                  <c:v>9.0780138969399999</c:v>
+                </c:pt>
+                <c:pt idx="210">
                   <c:v>6.61938562989</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="211">
+                  <c:v>8.0378249287599992</c:v>
+                </c:pt>
+                <c:pt idx="212">
                   <c:v>6.9976359605800003</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="213">
                   <c:v>6.4302600920200002</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="214">
+                  <c:v>7.3286049067999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
                   <c:v>6.0520093888000002</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="216">
                   <c:v>5.2955083548999999</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="217">
+                  <c:v>7.3286049067999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>5.2955083548999999</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="219">
                   <c:v>4.2080380022500004</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="220">
+                  <c:v>5.6737586855900002</c:v>
+                </c:pt>
+                <c:pt idx="221">
                   <c:v>4.0189124643799996</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="222">
+                  <c:v>4.8699762672200002</c:v>
+                </c:pt>
+                <c:pt idx="223">
                   <c:v>3.4988179802900001</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="224">
                   <c:v>3.4988179802900001</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="225">
+                  <c:v>4.49172593653</c:v>
+                </c:pt>
+                <c:pt idx="226">
                   <c:v>3.4988179802900001</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="227">
+                  <c:v>3.7825059145700002</c:v>
+                </c:pt>
+                <c:pt idx="228">
                   <c:v>2.8841607272599998</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="229">
                   <c:v>2.7895981445900002</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="230">
+                  <c:v>3.9716310799099999</c:v>
+                </c:pt>
+                <c:pt idx="231">
                   <c:v>1.8912529572800001</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="232">
+                  <c:v>3.0732860788699998</c:v>
+                </c:pt>
+                <c:pt idx="233">
                   <c:v>2.45862882584</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="234">
                   <c:v>1.9858155399599999</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="235">
+                  <c:v>2.8841607272599998</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>1.65484640747</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="237">
+                  <c:v>2.45862882584</c:v>
+                </c:pt>
+                <c:pt idx="238">
                   <c:v>1.65484640747</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="239">
                   <c:v>1.56028373167</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="240">
+                  <c:v>1.9858155399599999</c:v>
+                </c:pt>
+                <c:pt idx="241">
                   <c:v>1.5130023472</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="242">
+                  <c:v>1.37115838006</c:v>
+                </c:pt>
+                <c:pt idx="243">
                   <c:v>1.08747044578</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="244">
                   <c:v>0.99290776997800001</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="245">
+                  <c:v>1.46572105587</c:v>
+                </c:pt>
+                <c:pt idx="246">
                   <c:v>1.0401891544499999</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="247">
+                  <c:v>1.22931441292</c:v>
+                </c:pt>
+                <c:pt idx="248">
                   <c:v>0.52009457722300001</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="249">
                   <c:v>0.89834518730599999</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="250">
+                  <c:v>1.13475173712</c:v>
+                </c:pt>
+                <c:pt idx="251">
                   <c:v>0.61465720646099997</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="252">
+                  <c:v>0.66193854436300004</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>0.52009457722300001</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="254">
                   <c:v>0.472813239321</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="255">
+                  <c:v>0.89834518730599999</c:v>
+                </c:pt>
+                <c:pt idx="256">
                   <c:v>0.28368793427900002</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="257">
+                  <c:v>0.61465720646099997</c:v>
+                </c:pt>
+                <c:pt idx="258">
                   <c:v>0.23640661966099999</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="259">
                   <c:v>0.28368793427900002</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.33096927218099997</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.23640661966099999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.33096927218099997</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.33096927218099997</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.23640661966099999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>9.4562646700100006E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2385,10 +2978,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$1:$A$202</c:f>
+              <c:f>Sheet2!$A$1:$A$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="202"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2396,614 +2989,917 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.194174714852</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.39793928153800001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.398384639993</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.59392629191299995</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.78512104228099999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.78527964651600002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>0.79632233828300003</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.98510328680299997</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1.1858590878499999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1.19249112904</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1.39684164897</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.5760872513099999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.58889014274</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
+                  <c:v>1.58972814679</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.7924671992700001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1.9496655091599999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1.9737536087600001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>2.1847307682000001</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>2.3424545302999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
+                  <c:v>2.3435195908000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>2.3730108514400001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>2.55853720009</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>2.7226373553299998</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>2.7875656262000001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>2.9733600094899999</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
+                  <c:v>3.12233287841</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>3.1355991959599998</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>3.1772337853899999</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>3.3603873103900002</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>3.49227003753</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>3.5667695105099999</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>3.7856560200499998</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
+                  <c:v>3.8536984473499998</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>3.8625318556999999</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>3.9684657007499999</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>4.1569560766200002</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>4.2672116309400003</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>4.3768018484100004</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>4.5715164393199998</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
+                  <c:v>4.6061556786300004</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>4.61535342038</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="44">
                   <c:v>4.77931499481</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>4.9465171992799997</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>5.00646643341</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
                   <c:v>5.1605574786700004</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="48">
+                  <c:v>5.3311854600900004</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>5.3550425916900002</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="50">
                   <c:v>5.38918860257</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="51">
                   <c:v>5.5520251393300004</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="52">
                   <c:v>5.7470086962</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="53">
                   <c:v>5.7596419006600001</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="54">
                   <c:v>5.94842657447</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="55">
+                  <c:v>6.02288506925</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>6.1141394078699998</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="57">
                   <c:v>6.1596941202900002</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="58">
                   <c:v>6.3661403954000004</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="59">
                   <c:v>6.4772576093699996</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>6.5466552972800001</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>6.7147158086300003</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>6.7307464778400004</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>6.8310596048800001</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>6.9411933422100001</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>7.1675859391700003</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>7.16887935996</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>7.3505960404900001</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
+                  <c:v>7.4646994471500001</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>7.5469382107299996</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="70">
                   <c:v>7.5527459383000002</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="71">
                   <c:v>7.7263131737700004</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="72">
                   <c:v>7.9292826354499999</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="73">
                   <c:v>7.9634889960299997</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="74">
+                  <c:v>8.0996342003299997</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>8.12417864799</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="76">
                   <c:v>8.2402460277100005</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="77">
                   <c:v>8.3580836653699997</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="78">
                   <c:v>8.5701450705499997</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="79">
                   <c:v>8.6368195712600002</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="80">
                   <c:v>8.7157011032099998</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="81">
+                  <c:v>8.7467186152899998</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>8.9415967464400001</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="83">
                   <c:v>8.9483954012400009</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="84">
                   <c:v>9.1264292597800001</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="85">
                   <c:v>9.3606032431100008</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="86">
                   <c:v>9.3626268207999992</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="87">
+                  <c:v>9.4496212899700005</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>9.5303341746299992</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="89">
                   <c:v>9.6632309258000006</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="90">
                   <c:v>9.6936851739899996</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="91">
                   <c:v>9.9128395318999996</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="92">
                   <c:v>9.99718755484</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="93">
+                  <c:v>10.1132549345</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>10.1416148245</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="95">
                   <c:v>10.3075586259</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="96">
                   <c:v>10.382410138799999</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="97">
                   <c:v>10.539211332800001</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="98">
                   <c:v>10.718511045</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="99">
                   <c:v>10.7266910374</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="100">
+                  <c:v>10.770766437100001</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>10.9144069254</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="102">
                   <c:v>11.0330060124</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="103">
                   <c:v>11.149459332199999</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="104">
                   <c:v>11.314560473</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="105">
                   <c:v>11.377099901399999</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="106">
+                  <c:v>11.391343921400001</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>11.5306973457</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="108">
                   <c:v>11.689912527800001</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="109">
                   <c:v>11.7016971111</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="110">
                   <c:v>11.9296260178</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="111">
+                  <c:v>11.9836620986</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>12.040948867799999</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="113">
                   <c:v>12.1441662312</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="114">
                   <c:v>12.276149541100001</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="115">
                   <c:v>12.3827770352</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="116">
                   <c:v>12.493211776000001</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="117">
+                  <c:v>12.588201463200001</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>12.6758441329</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="119">
                   <c:v>12.7024188638</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="120">
                   <c:v>12.895911932000001</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="121">
                   <c:v>13.030539452999999</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="122">
                   <c:v>13.1089776754</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="123">
+                  <c:v>13.221918046500001</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>13.2771372795</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="125">
                   <c:v>13.3755937219</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="126">
                   <c:v>13.531486689999999</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="127">
                   <c:v>13.650694489499999</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="128">
                   <c:v>13.748960197000001</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="129">
+                  <c:v>13.7797087431</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>13.883543014500001</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="131">
                   <c:v>14.013415575</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="132">
                   <c:v>14.054460823499999</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="133">
                   <c:v>14.309167861900001</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="134">
                   <c:v>14.3386825919</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="135">
+                  <c:v>14.423693716500001</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>14.489260315899999</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="137">
                   <c:v>14.6312907338</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="138">
                   <c:v>14.7162914276</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="139">
                   <c:v>14.895087480500001</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="140">
+                  <c:v>14.9519369006</c:v>
+                </c:pt>
+                <c:pt idx="141">
                   <c:v>14.9637803435</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="142">
                   <c:v>15.109680593</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="143">
                   <c:v>15.2712509036</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="144">
                   <c:v>15.290054678900001</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="145">
+                  <c:v>15.5023440719</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>15.5378133059</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="147">
                   <c:v>15.5803725123</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="148">
                   <c:v>15.695174038399999</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="149">
                   <c:v>15.8474713564</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="150">
                   <c:v>15.8760026097</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="151">
+                  <c:v>16.031029820400001</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>16.0815268755</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="153">
                   <c:v>16.205792128999999</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="154">
                   <c:v>16.242492198899999</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="155">
                   <c:v>16.439345479</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="156">
                   <c:v>16.539472341500002</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="157">
+                  <c:v>16.604027152099999</c:v>
+                </c:pt>
+                <c:pt idx="158">
                   <c:v>16.679888963700002</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="159">
                   <c:v>16.788627207299999</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="160">
                   <c:v>16.882580518699999</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="161">
                   <c:v>17.063316702800002</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="162">
                   <c:v>17.137971520400001</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="163">
+                  <c:v>17.139442265</c:v>
+                </c:pt>
+                <c:pt idx="164">
                   <c:v>17.2692045569</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="165">
                   <c:v>17.4363300204</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="166">
                   <c:v>17.495808005299999</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="167">
                   <c:v>17.648215591900001</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="168">
+                  <c:v>17.6599800587</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>17.712734639600001</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="170">
                   <c:v>17.888937890499999</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="171">
                   <c:v>18.034078180800002</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="172">
                   <c:v>18.0692568421</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="173">
+                  <c:v>18.212631344799998</c:v>
+                </c:pt>
+                <c:pt idx="174">
                   <c:v>18.251483142400001</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="175">
                   <c:v>18.2522520423</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="176">
                   <c:v>18.487901985600001</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="177">
                   <c:v>18.521741032600001</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="178">
+                  <c:v>18.649208545699999</c:v>
+                </c:pt>
+                <c:pt idx="179">
                   <c:v>18.664218485399999</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="180">
                   <c:v>18.835499882699999</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="181">
                   <c:v>18.8561946154</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="182">
                   <c:v>19.051784276999999</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="183">
+                  <c:v>19.144958257700001</c:v>
+                </c:pt>
+                <c:pt idx="184">
                   <c:v>19.2176029086</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="185">
                   <c:v>19.250380992899998</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="186">
                   <c:v>19.443149864700001</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="187">
                   <c:v>19.454641640199998</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="188">
                   <c:v>19.636507332299999</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="189">
+                  <c:v>19.666595757</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>19.712717831100001</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="191">
                   <c:v>19.8663726449</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="192">
                   <c:v>19.995565712499999</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="193">
+                  <c:v>20.159192383299999</c:v>
+                </c:pt>
+                <c:pt idx="194">
                   <c:v>20.2751353383</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="195">
                   <c:v>20.5541998148</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="196">
+                  <c:v>20.594201982000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>20.8384871483</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="198">
+                  <c:v>21.083462238300001</c:v>
+                </c:pt>
+                <c:pt idx="199">
                   <c:v>21.096970140900002</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="200">
                   <c:v>21.342393755900002</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="201">
+                  <c:v>21.554508805299999</c:v>
+                </c:pt>
+                <c:pt idx="202">
                   <c:v>21.648673713200001</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="203">
                   <c:v>21.962416172000001</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="204">
+                  <c:v>21.9955250621</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>22.230885922900001</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="206">
+                  <c:v>22.391542792300001</c:v>
+                </c:pt>
+                <c:pt idx="207">
                   <c:v>22.473841905600001</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="208">
                   <c:v>22.7805823088</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="209">
+                  <c:v>22.855642437899998</c:v>
+                </c:pt>
+                <c:pt idx="210">
                   <c:v>22.9377046227</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="211">
+                  <c:v>23.274670541300001</c:v>
+                </c:pt>
+                <c:pt idx="212">
                   <c:v>23.293434083499999</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="213">
                   <c:v>23.4794020653</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="214">
+                  <c:v>23.649856448200001</c:v>
+                </c:pt>
+                <c:pt idx="215">
                   <c:v>23.7497478724</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="216">
                   <c:v>23.990127444300001</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="217">
+                  <c:v>24.078704416800001</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>24.232697486900001</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="219">
                   <c:v>24.4838938117</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="220">
+                  <c:v>24.504065513600001</c:v>
+                </c:pt>
+                <c:pt idx="221">
                   <c:v>24.759414792099999</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="222">
+                  <c:v>24.9077290297</c:v>
+                </c:pt>
+                <c:pt idx="223">
                   <c:v>24.961751699400001</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="224">
                   <c:v>25.231289863600001</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="225">
+                  <c:v>25.249600410500001</c:v>
+                </c:pt>
+                <c:pt idx="226">
                   <c:v>25.509545206999999</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="227">
+                  <c:v>25.606006383899999</c:v>
+                </c:pt>
+                <c:pt idx="228">
                   <c:v>25.717386603400001</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="229">
                   <c:v>25.9230405092</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="230">
+                  <c:v>26.015183329599999</c:v>
+                </c:pt>
+                <c:pt idx="231">
                   <c:v>26.225847005799999</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="232">
+                  <c:v>26.376610994299998</c:v>
+                </c:pt>
+                <c:pt idx="233">
                   <c:v>26.419717073400001</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="234">
                   <c:v>26.653021574</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="235">
+                  <c:v>26.754912734000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>26.870548725100001</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="237">
+                  <c:v>27.163645625099999</c:v>
+                </c:pt>
+                <c:pt idx="238">
                   <c:v>27.185249328600001</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="239">
                   <c:v>27.384942769999999</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="240">
+                  <c:v>27.415937185299999</c:v>
+                </c:pt>
+                <c:pt idx="241">
                   <c:v>27.559721469900001</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="242">
+                  <c:v>27.748870849599999</c:v>
+                </c:pt>
+                <c:pt idx="243">
                   <c:v>27.812674641600001</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="244">
                   <c:v>27.9813349247</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="245">
+                  <c:v>28.132769465399999</c:v>
+                </c:pt>
+                <c:pt idx="246">
                   <c:v>28.2340824604</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="247">
+                  <c:v>28.4129977226</c:v>
+                </c:pt>
+                <c:pt idx="248">
                   <c:v>28.4778505564</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="249">
                   <c:v>28.626817464799998</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="250">
+                  <c:v>28.762894868899998</c:v>
+                </c:pt>
+                <c:pt idx="251">
                   <c:v>28.8916170597</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="252">
+                  <c:v>29.0322244167</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>29.068389535000001</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="254">
                   <c:v>29.334947466900001</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="255">
+                  <c:v>29.3443828821</c:v>
+                </c:pt>
+                <c:pt idx="256">
                   <c:v>29.463732242599999</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="257">
+                  <c:v>29.6147435904</c:v>
+                </c:pt>
+                <c:pt idx="258">
                   <c:v>29.682788252800002</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="259">
                   <c:v>29.8844575882</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>29.895153641699999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>30.2148282528</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>30.447858572000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>30.731093883500002</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>31.048020720499999</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>31.288748979600001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>31.557869911200001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>31.735277175899999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>32.007920742000003</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>32.272374630000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>32.497346401199998</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>32.739743590400003</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>32.899516820899997</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>33.1649512053</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>33.358648419399998</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>33.588263392400002</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>33.796268701599999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>33.995905518500003</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>34.204000234600002</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>34.390050172800002</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>34.619796276099997</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>34.735015034699998</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>34.866723418200003</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>35.115832090399998</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>35.235053300899999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>35.399696230899998</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>35.555711388600002</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>35.764864087100001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>35.934120416600003</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>35.975602269200003</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>36.165878176699998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>36.284884810400001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>36.486878991099999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>36.606276035299999</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>36.679351329799999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>36.890065669999998</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>36.937564611399999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>37.048396468200004</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>37.216892838500002</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>37.258365750300001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>37.449839711199999</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>37.5026494265</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>37.626898288699998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$1:$C$202</c:f>
+              <c:f>Sheet2!$C$1:$C$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="202"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>95.2245891094</c:v>
                 </c:pt>
@@ -3011,609 +3907,912 @@
                   <c:v>95.2245891094</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>95.2245891094</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>95.130026340499995</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>95.2245891094</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.035463571500003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>95.035463571500003</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>95.2245891094</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>95.035463571500003</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>95.130026340499995</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>95.177304744699995</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>95.177304744699995</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>95.035463571500003</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>95.319151878400007</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>95.177304744699995</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>95.460993051499997</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
+                  <c:v>94.846338033699993</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>95.271867513700002</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>94.893616437899993</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95.130026340499995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>94.988179206799998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>94.940900802599998</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>95.130026340499995</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>94.988179206799998</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>94.940900802599998</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
+                  <c:v>95.2245891094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.130026340499995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.940900802599998</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>94.988179206799998</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>94.940900802599998</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>95.2245891094</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
+                  <c:v>94.940900802599998</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>95.130026340499995</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>95.271867513700002</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>95.130026340499995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>95.035463571500003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>95.130026340499995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>94.420802593199994</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>94.988179206799998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>94.940900802599998</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>95.035463571500003</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>95.130026340499995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94.420802593199994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>94.799053669000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94.988179206799998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94.940900802599998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>95.177304744699995</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>94.799053669000003</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>94.704490899999996</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
+                  <c:v>95.130026340499995</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>94.893616437899993</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="44">
                   <c:v>94.704490899999996</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>94.515365362200001</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>94.940900802599998</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
                   <c:v>94.940900802599998</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="48">
+                  <c:v>94.893616437899993</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>94.988179206799998</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="50">
                   <c:v>95.082741975800005</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="51">
                   <c:v>95.035463571500003</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="52">
                   <c:v>95.508271455799999</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="53">
                   <c:v>94.940900802599998</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="54">
                   <c:v>94.846338033699993</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="55">
+                  <c:v>95.130026340499995</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>95.271867513700002</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="57">
                   <c:v>95.130026340499995</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="58">
                   <c:v>95.130026340499995</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="59">
                   <c:v>95.2245891094</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>94.704490899999996</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>94.799053669000003</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>95.130026340499995</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>94.751775264700001</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>95.413708686800007</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>95.2245891094</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>95.319151878400007</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>94.846338033699993</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>94.704490899999996</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>94.988179206799998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>95.177304744699995</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>94.468086957899999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>94.657212495799996</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>95.177304744699995</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>95.130026340499995</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>95.319151878400007</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>94.657212495799996</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>95.035463571500003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>94.893616437899993</c:v>
+                  <c:v>94.846338033699993</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>94.940900802599998</c:v>
+                  <c:v>94.704490899999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>94.562649726900005</c:v>
+                  <c:v>94.988179206799998</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>95.177304744699995</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>94.846338033699993</c:v>
+                  <c:v>94.468086957899999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>94.846338033699993</c:v>
+                  <c:v>95.035463571500003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>94.799053669000003</c:v>
+                  <c:v>94.657212495799996</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>94.799053669000003</c:v>
+                  <c:v>95.177304744699995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>94.988179206799998</c:v>
+                  <c:v>95.130026340499995</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>94.751775264700001</c:v>
+                  <c:v>95.319151878400007</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>95.413708686800007</c:v>
+                  <c:v>94.657212495799996</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.846338033699993</c:v>
+                  <c:v>95.035463571500003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>94.326239824300004</c:v>
+                  <c:v>94.704490899999996</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>95.082741975800005</c:v>
+                  <c:v>94.893616437899993</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>94.988179206799998</c:v>
+                  <c:v>94.940900802599998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>94.988179206799998</c:v>
+                  <c:v>94.562649726900005</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>94.846338033699993</c:v>
+                  <c:v>95.177304744699995</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>94.846338033699993</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>94.893616437899993</c:v>
+                  <c:v>94.751775264700001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>94.515365362200001</c:v>
+                  <c:v>94.846338033699993</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>94.420802593199994</c:v>
+                  <c:v>94.799053669000003</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>94.562649726900005</c:v>
+                  <c:v>94.799053669000003</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>95.271867513700002</c:v>
+                  <c:v>94.988179206799998</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>94.751775264700001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.609928131100006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.413708686800007</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>94.846338033699993</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>94.420802593199994</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94.609928131100006</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>94.657212495799996</c:v>
-                </c:pt>
                 <c:pt idx="96">
-                  <c:v>94.609928131100006</c:v>
+                  <c:v>94.326239824300004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>94.657212495799996</c:v>
+                  <c:v>95.082741975800005</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>94.609928131100006</c:v>
+                  <c:v>94.988179206799998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94.184398651099997</c:v>
+                  <c:v>94.988179206799998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>94.515365362200001</c:v>
+                  <c:v>94.278961420100003</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>94.562649726900005</c:v>
+                  <c:v>94.846338033699993</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>94.846338033699993</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>94.893616437899993</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>94.515365362200001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>94.420802593199994</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>94.751775264700001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>94.562649726900005</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>95.271867513700002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>94.846338033699993</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>94.420802593199994</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>94.609928131100006</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>94.609928131100006</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>94.657212495799996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>94.609928131100006</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>94.657212495799996</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>94.609928131100006</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>95.177304744699995</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>94.184398651099997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>94.515365362200001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>94.562649726900005</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>94.846338033699993</c:v>
+                </c:pt>
+                <c:pt idx="122">
                   <c:v>94.326239824300004</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="123">
+                  <c:v>94.940900802599998</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>94.751775264700001</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="125">
                   <c:v>94.940900802599998</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="126">
                   <c:v>94.373524188999994</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="127">
                   <c:v>94.373524188999994</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="128">
                   <c:v>94.940900802599998</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="129">
+                  <c:v>94.468086957899999</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>94.940900802599998</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="131">
                   <c:v>94.042551517500002</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="132">
                   <c:v>94.137114286400006</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="133">
                   <c:v>94.704490899999996</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="134">
                   <c:v>94.704490899999996</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="135">
+                  <c:v>94.893616437899993</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>94.751775264700001</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="137">
                   <c:v>94.420802593199994</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="138">
                   <c:v>94.137114286400006</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="139">
                   <c:v>94.468086957899999</c:v>
                 </c:pt>
-                <c:pt idx="118">
-                  <c:v>93.900710344299995</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>94.184398651099997</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>94.515365362200001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>94.420802593199994</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>94.799053669000003</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>94.562649726900005</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>93.522459268600002</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>94.278961420100003</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>94.704490899999996</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>94.468086957899999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>93.947988748599997</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>94.042551517500002</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>94.751775264700001</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>94.420802593199994</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>93.900710344299995</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>93.569737672800002</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>94.278961420100003</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>94.468086957899999</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>93.995273113300001</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>94.089835882200006</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>93.947988748599997</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>94.278961420100003</c:v>
-                </c:pt>
                 <c:pt idx="140">
-                  <c:v>94.657212495799996</c:v>
+                  <c:v>94.326239824300004</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>93.900710344299995</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>94.231677055399999</c:v>
+                  <c:v>94.184398651099997</c:v>
                 </c:pt>
                 <c:pt idx="143">
+                  <c:v>94.515365362200001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>94.420802593199994</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>93.806147575400004</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>94.799053669000003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>94.562649726900005</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>93.522459268600002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>94.278961420100003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>94.704490899999996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>94.373524188999994</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>94.468086957899999</c:v>
                 </c:pt>
-                <c:pt idx="144">
-                  <c:v>93.853425979600004</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>94.468086957899999</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>93.711584806399998</c:v>
-                </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="153">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>94.042551517500002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>94.751775264700001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>94.420802593199994</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>94.089835882200006</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="158">
+                  <c:v>93.900710344299995</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>93.569737672800002</c:v>
+                </c:pt>
+                <c:pt idx="160">
                   <c:v>94.278961420100003</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>93.995273113300001</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>94.373524188999994</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>93.947988748599997</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>94.137114286400006</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>94.278961420100003</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>93.947988748599997</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>93.333333730700005</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>93.900710344299995</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>93.2387709618</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>94.231677055399999</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>93.806147575400004</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>93.617022037500007</c:v>
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>94.468086957899999</c:v>
                 </c:pt>
                 <c:pt idx="162">
+                  <c:v>93.995273113300001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>94.562649726900005</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>94.089835882200006</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>94.278961420100003</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>94.657212495799996</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>94.184398651099997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>93.900710344299995</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>94.231677055399999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>94.468086957899999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>93.853425979600004</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>94.468086957899999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>93.711584806399998</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>94.089835882200006</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>94.278961420100003</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>93.995273113300001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>94.373524188999994</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>94.137114286400006</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>93.664300441699993</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>94.278961420100003</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>93.333333730700005</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>93.900710344299995</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>93.2387709618</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>94.231677055399999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>93.806147575400004</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>93.617022037500007</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>93.853425979600004</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>94.468086957899999</c:v>
+                </c:pt>
+                <c:pt idx="195">
                   <c:v>93.475174903899998</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="196">
+                  <c:v>92.907804250699996</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>94.326239824300004</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="198">
+                  <c:v>93.191486597099995</c:v>
+                </c:pt>
+                <c:pt idx="199">
                   <c:v>93.806147575400004</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="200">
                   <c:v>93.333333730700005</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="201">
+                  <c:v>93.664300441699993</c:v>
+                </c:pt>
+                <c:pt idx="202">
                   <c:v>93.711584806399998</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="203">
                   <c:v>93.049645423900003</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="204">
+                  <c:v>92.860519886000006</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>93.475174903899998</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="206">
+                  <c:v>93.617022037500007</c:v>
+                </c:pt>
+                <c:pt idx="207">
                   <c:v>93.853425979600004</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="208">
                   <c:v>93.664300441699993</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="209">
+                  <c:v>93.475174903899998</c:v>
+                </c:pt>
+                <c:pt idx="210">
                   <c:v>93.664300441699993</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="211">
+                  <c:v>93.002367019700003</c:v>
+                </c:pt>
+                <c:pt idx="212">
                   <c:v>93.2387709618</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="213">
                   <c:v>93.853425979600004</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="214">
+                  <c:v>93.286049366</c:v>
+                </c:pt>
+                <c:pt idx="215">
                   <c:v>93.002367019700003</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="216">
                   <c:v>93.049645423900003</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="217">
+                  <c:v>93.096923828100003</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>93.475174903899998</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="219">
                   <c:v>93.049645423900003</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="220">
+                  <c:v>92.765957117100001</c:v>
+                </c:pt>
+                <c:pt idx="221">
                   <c:v>92.624115943899994</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="222">
+                  <c:v>93.2387709618</c:v>
+                </c:pt>
+                <c:pt idx="223">
                   <c:v>92.671394348099994</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="224">
                   <c:v>93.286049366</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="225">
+                  <c:v>93.096923828100003</c:v>
+                </c:pt>
+                <c:pt idx="226">
                   <c:v>92.671394348099994</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="227">
+                  <c:v>92.907804250699996</c:v>
+                </c:pt>
+                <c:pt idx="228">
                   <c:v>92.245864868200002</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="229">
                   <c:v>92.955082654999998</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="230">
+                  <c:v>92.529553175000004</c:v>
+                </c:pt>
+                <c:pt idx="231">
                   <c:v>92.340427637100007</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="232">
+                  <c:v>91.442078351999996</c:v>
+                </c:pt>
+                <c:pt idx="233">
                   <c:v>92.718678712799999</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="234">
                   <c:v>91.347515583000003</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="235">
+                  <c:v>91.442078351999996</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>92.104017734500005</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="237">
+                  <c:v>92.056739330300005</c:v>
+                </c:pt>
+                <c:pt idx="238">
                   <c:v>91.820329427700003</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="239">
                   <c:v>91.9621765614</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="240">
+                  <c:v>91.773051023500003</c:v>
+                </c:pt>
+                <c:pt idx="241">
                   <c:v>91.914892196699995</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="242">
+                  <c:v>92.671394348099994</c:v>
+                </c:pt>
+                <c:pt idx="243">
                   <c:v>91.867613792399993</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="244">
                   <c:v>91.300237178800003</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="245">
+                  <c:v>91.016548872000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
                   <c:v>91.111111640900006</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="247">
+                  <c:v>91.631203889800005</c:v>
+                </c:pt>
+                <c:pt idx="248">
                   <c:v>90.2600467205</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="249">
                   <c:v>91.489362716700001</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="250">
+                  <c:v>90.543735027300002</c:v>
+                </c:pt>
+                <c:pt idx="251">
                   <c:v>90.827423334100004</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="252">
+                  <c:v>90.496456623100002</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>90.543735027300002</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="254">
                   <c:v>90.449172258399997</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="255">
+                  <c:v>90.543735027300002</c:v>
+                </c:pt>
+                <c:pt idx="256">
                   <c:v>90.732860565199999</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="257">
+                  <c:v>89.929080009499998</c:v>
+                </c:pt>
+                <c:pt idx="258">
                   <c:v>89.787232875800001</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="259">
                   <c:v>89.645391702699996</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>89.834517240500006</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>89.456266164799999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>88.747042417499998</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>88.936167955399995</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>88.605201244400007</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>88.888889551199995</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>88.321512937500003</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>87.044918537100003</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>85.390073060999995</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>87.044918537100003</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>86.903071403499993</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>85.910165309899995</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>84.491723775899999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>84.160757064799995</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>84.208035469099997</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>82.553189992900002</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>83.546102047000005</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>82.931441068599995</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>81.087470054600004</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>79.574465751600002</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>80.425530672099995</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>78.770685195900001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>77.399528026599995</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>76.784867048300001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>75.271868705700001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>74.988180398899999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>75.650119781499995</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>75.035458803200001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>74.326241016400004</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>73.427897691699997</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>71.631205081900006</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>71.016550064100002</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>71.442079544099997</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>71.394801139799995</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>69.4562673569</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>66.288417577700002</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>67.612290382400005</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>66.099292039900007</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>66.099292039900007</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>65.673756599399994</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>61.276596784600002</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>62.222224474000001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>62.127661705000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3623,11 +4822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1243864272"/>
-        <c:axId val="-1243859376"/>
+        <c:axId val="98698368"/>
+        <c:axId val="98686400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1243864272"/>
+        <c:axId val="98698368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,6 +4846,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Noise</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3684,12 +4939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1243859376"/>
+        <c:crossAx val="98686400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1243859376"/>
+        <c:axId val="98686400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,6 +4964,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3746,7 +5057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1243864272"/>
+        <c:crossAx val="98698368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3758,38 +5069,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4412,20 +5691,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5530,10 +6809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5568,43 +6847,43 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.194174714852</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>97.635936737099996</v>
+        <v>96.595746278799993</v>
       </c>
       <c r="C3">
-        <v>95.130026340499995</v>
+        <v>95.2245891094</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.39793928153800001</v>
+        <v>0.194174714852</v>
       </c>
       <c r="B4">
-        <v>97.541373968100004</v>
+        <v>97.635936737099996</v>
       </c>
       <c r="C4">
-        <v>95.2245891094</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.398384639993</v>
+        <v>0.39793928153800001</v>
       </c>
       <c r="B5">
-        <v>97.494089603399999</v>
+        <v>97.541373968100004</v>
       </c>
       <c r="C5">
-        <v>95.035463571500003</v>
+        <v>95.2245891094</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.59392629191299995</v>
+        <v>0.398384639993</v>
       </c>
       <c r="B6">
-        <v>97.446811199199999</v>
+        <v>97.494089603399999</v>
       </c>
       <c r="C6">
         <v>95.035463571500003</v>
@@ -5612,153 +6891,153 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.78512104228099999</v>
+        <v>0.59392629191299995</v>
       </c>
       <c r="B7">
-        <v>97.210401296599997</v>
+        <v>97.446811199199999</v>
       </c>
       <c r="C7">
-        <v>95.2245891094</v>
+        <v>95.035463571500003</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.78527964651600002</v>
+        <v>0.78512104228099999</v>
       </c>
       <c r="B8">
-        <v>97.399526834499994</v>
+        <v>97.210401296599997</v>
       </c>
       <c r="C8">
-        <v>95.035463571500003</v>
+        <v>95.2245891094</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.98510328680299997</v>
+        <v>0.78527964651600002</v>
       </c>
       <c r="B9">
-        <v>97.210401296599997</v>
+        <v>97.399526834499994</v>
       </c>
       <c r="C9">
-        <v>95.177304744699995</v>
+        <v>95.035463571500003</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.1858590878499999</v>
+        <v>0.79632233828300003</v>
       </c>
       <c r="B10">
-        <v>97.399526834499994</v>
+        <v>96.122932434099994</v>
       </c>
       <c r="C10">
-        <v>95.177304744699995</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.19249112904</v>
+        <v>0.98510328680299997</v>
       </c>
       <c r="B11">
-        <v>96.879434585599995</v>
+        <v>97.210401296599997</v>
       </c>
       <c r="C11">
-        <v>95.035463571500003</v>
+        <v>95.177304744699995</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.39684164897</v>
+        <v>1.1858590878499999</v>
       </c>
       <c r="B12">
-        <v>97.163122892399997</v>
+        <v>97.399526834499994</v>
       </c>
       <c r="C12">
-        <v>95.319151878400007</v>
+        <v>95.177304744699995</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.5760872513099999</v>
+        <v>1.19249112904</v>
       </c>
       <c r="B13">
-        <v>96.501183509800001</v>
+        <v>96.879434585599995</v>
       </c>
       <c r="C13">
-        <v>95.177304744699995</v>
+        <v>95.035463571500003</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.58889014274</v>
+        <v>1.39684164897</v>
       </c>
       <c r="B14">
-        <v>96.690309047699998</v>
+        <v>97.163122892399997</v>
       </c>
       <c r="C14">
-        <v>95.460993051499997</v>
+        <v>95.319151878400007</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.7924671992700001</v>
+        <v>1.5760872513099999</v>
       </c>
       <c r="B15">
-        <v>96.548461914100002</v>
+        <v>96.501183509800001</v>
       </c>
       <c r="C15">
-        <v>95.271867513700002</v>
+        <v>95.177304744699995</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.9496655091599999</v>
+        <v>1.58889014274</v>
       </c>
       <c r="B16">
-        <v>96.406620740899996</v>
+        <v>96.690309047699998</v>
       </c>
       <c r="C16">
-        <v>94.893616437899993</v>
+        <v>95.460993051499997</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.9737536087600001</v>
+        <v>1.58972814679</v>
       </c>
       <c r="B17">
-        <v>96.453899145099996</v>
+        <v>95.177304744699995</v>
       </c>
       <c r="C17">
-        <v>95.130026340499995</v>
+        <v>94.846338033699993</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2.1847307682000001</v>
+        <v>1.7924671992700001</v>
       </c>
       <c r="B18">
-        <v>96.028369665100001</v>
+        <v>96.548461914100002</v>
       </c>
       <c r="C18">
-        <v>94.988179206799998</v>
+        <v>95.271867513700002</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2.3424545302999999</v>
+        <v>1.9496655091599999</v>
       </c>
       <c r="B19">
-        <v>95.319151878400007</v>
+        <v>96.406620740899996</v>
       </c>
       <c r="C19">
-        <v>94.940900802599998</v>
+        <v>94.893616437899993</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2.3730108514400001</v>
+        <v>1.9737536087600001</v>
       </c>
       <c r="B20">
-        <v>95.744681358299999</v>
+        <v>96.453899145099996</v>
       </c>
       <c r="C20">
         <v>95.130026340499995</v>
@@ -5766,142 +7045,142 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2.55853720009</v>
+        <v>2.1847307682000001</v>
       </c>
       <c r="B21">
-        <v>95.2245891094</v>
+        <v>96.028369665100001</v>
       </c>
       <c r="C21">
-        <v>94.940900802599998</v>
+        <v>94.988179206799998</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2.7226373553299998</v>
+        <v>2.3424545302999999</v>
       </c>
       <c r="B22">
-        <v>95.366430282600007</v>
+        <v>95.319151878400007</v>
       </c>
       <c r="C22">
-        <v>94.988179206799998</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2.7875656262000001</v>
+        <v>2.3435195908000002</v>
       </c>
       <c r="B23">
-        <v>95.130026340499995</v>
+        <v>93.947988748599997</v>
       </c>
       <c r="C23">
-        <v>94.940900802599998</v>
+        <v>95.2245891094</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2.9733600094899999</v>
+        <v>2.3730108514400001</v>
       </c>
       <c r="B24">
-        <v>95.413708686800007</v>
+        <v>95.744681358299999</v>
       </c>
       <c r="C24">
-        <v>95.2245891094</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3.1355991959599998</v>
+        <v>2.55853720009</v>
       </c>
       <c r="B25">
-        <v>94.468086957899999</v>
+        <v>95.2245891094</v>
       </c>
       <c r="C25">
-        <v>95.130026340499995</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3.1772337853899999</v>
+        <v>2.7226373553299998</v>
       </c>
       <c r="B26">
-        <v>95.177304744699995</v>
+        <v>95.366430282600007</v>
       </c>
       <c r="C26">
-        <v>95.271867513700002</v>
+        <v>94.988179206799998</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3.3603873103900002</v>
+        <v>2.7875656262000001</v>
       </c>
       <c r="B27">
-        <v>94.089835882200006</v>
+        <v>95.130026340499995</v>
       </c>
       <c r="C27">
-        <v>95.130026340499995</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3.49227003753</v>
+        <v>2.9733600094899999</v>
       </c>
       <c r="B28">
-        <v>93.522459268600002</v>
+        <v>95.413708686800007</v>
       </c>
       <c r="C28">
-        <v>95.035463571500003</v>
+        <v>95.2245891094</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3.5667695105099999</v>
+        <v>3.12233287841</v>
       </c>
       <c r="B29">
-        <v>93.475174903899998</v>
+        <v>91.725766658799998</v>
       </c>
       <c r="C29">
-        <v>95.130026340499995</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3.7856560200499998</v>
+        <v>3.1355991959599998</v>
       </c>
       <c r="B30">
-        <v>92.860519886000006</v>
+        <v>94.468086957899999</v>
       </c>
       <c r="C30">
-        <v>94.420802593199994</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3.8625318556999999</v>
+        <v>3.1772337853899999</v>
       </c>
       <c r="B31">
-        <v>92.671394348099994</v>
+        <v>95.177304744699995</v>
       </c>
       <c r="C31">
-        <v>94.988179206799998</v>
+        <v>95.271867513700002</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3.9684657007499999</v>
+        <v>3.3603873103900002</v>
       </c>
       <c r="B32">
-        <v>92.955082654999998</v>
+        <v>94.089835882200006</v>
       </c>
       <c r="C32">
-        <v>94.940900802599998</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>4.1569560766200002</v>
+        <v>3.49227003753</v>
       </c>
       <c r="B33">
-        <v>91.773051023500003</v>
+        <v>93.522459268600002</v>
       </c>
       <c r="C33">
         <v>95.035463571500003</v>
@@ -5909,395 +7188,395 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>4.2672116309400003</v>
+        <v>3.5667695105099999</v>
       </c>
       <c r="B34">
-        <v>91.111111640900006</v>
+        <v>93.475174903899998</v>
       </c>
       <c r="C34">
-        <v>95.177304744699995</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>4.3768018484100004</v>
+        <v>3.7856560200499998</v>
       </c>
       <c r="B35">
-        <v>91.489362716700001</v>
+        <v>92.860519886000006</v>
       </c>
       <c r="C35">
-        <v>94.799053669000003</v>
+        <v>94.420802593199994</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>4.5715164393199998</v>
+        <v>3.8536984473499998</v>
       </c>
       <c r="B36">
-        <v>89.739954471600001</v>
+        <v>88.794326782200002</v>
       </c>
       <c r="C36">
-        <v>94.704490899999996</v>
+        <v>94.799053669000003</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>4.61535342038</v>
+        <v>3.8625318556999999</v>
       </c>
       <c r="B37">
-        <v>89.550828933700004</v>
+        <v>92.671394348099994</v>
       </c>
       <c r="C37">
-        <v>94.893616437899993</v>
+        <v>94.988179206799998</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>4.77931499481</v>
+        <v>3.9684657007499999</v>
       </c>
       <c r="B38">
-        <v>89.881795644799993</v>
+        <v>92.955082654999998</v>
       </c>
       <c r="C38">
-        <v>94.704490899999996</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>4.9465171992799997</v>
+        <v>4.1569560766200002</v>
       </c>
       <c r="B39">
-        <v>89.172577857999997</v>
+        <v>91.773051023500003</v>
       </c>
       <c r="C39">
-        <v>94.515365362200001</v>
+        <v>95.035463571500003</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>5.00646643341</v>
+        <v>4.2672116309400003</v>
       </c>
       <c r="B40">
-        <v>88.321512937500003</v>
+        <v>91.111111640900006</v>
       </c>
       <c r="C40">
-        <v>94.940900802599998</v>
+        <v>95.177304744699995</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>5.1605574786700004</v>
+        <v>4.3768018484100004</v>
       </c>
       <c r="B41">
-        <v>87.565010786100004</v>
+        <v>91.489362716700001</v>
       </c>
       <c r="C41">
-        <v>94.940900802599998</v>
+        <v>94.799053669000003</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>5.3550425916900002</v>
+        <v>4.5715164393199998</v>
       </c>
       <c r="B42">
-        <v>85.768324136700002</v>
+        <v>89.739954471600001</v>
       </c>
       <c r="C42">
-        <v>94.988179206799998</v>
+        <v>94.704490899999996</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>5.38918860257</v>
+        <v>4.6061556786300004</v>
       </c>
       <c r="B43">
-        <v>84.822696447400006</v>
+        <v>85.815602541000004</v>
       </c>
       <c r="C43">
-        <v>95.082741975800005</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>5.5520251393300004</v>
+        <v>4.61535342038</v>
       </c>
       <c r="B44">
-        <v>83.167850971199996</v>
+        <v>89.550828933700004</v>
       </c>
       <c r="C44">
-        <v>95.035463571500003</v>
+        <v>94.893616437899993</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>5.7470086962</v>
+        <v>4.77931499481</v>
       </c>
       <c r="B45">
-        <v>83.451539277999998</v>
+        <v>89.881795644799993</v>
       </c>
       <c r="C45">
-        <v>95.508271455799999</v>
+        <v>94.704490899999996</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>5.7596419006600001</v>
+        <v>4.9465171992799997</v>
       </c>
       <c r="B46">
-        <v>82.2222232819</v>
+        <v>89.172577857999997</v>
       </c>
       <c r="C46">
-        <v>94.940900802599998</v>
+        <v>94.515365362200001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>5.94842657447</v>
+        <v>5.00646643341</v>
       </c>
       <c r="B47">
-        <v>82.033097744000003</v>
+        <v>88.321512937500003</v>
       </c>
       <c r="C47">
-        <v>94.846338033699993</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>6.1141394078699998</v>
+        <v>5.1605574786700004</v>
       </c>
       <c r="B48">
-        <v>78.817969560600005</v>
+        <v>87.565010786100004</v>
       </c>
       <c r="C48">
-        <v>95.271867513700002</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>6.1596941202900002</v>
+        <v>5.3311854600900004</v>
       </c>
       <c r="B49">
-        <v>79.527187347400002</v>
+        <v>81.371158361400006</v>
       </c>
       <c r="C49">
-        <v>95.130026340499995</v>
+        <v>94.893616437899993</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>6.3661403954000004</v>
+        <v>5.3550425916900002</v>
       </c>
       <c r="B50">
-        <v>77.399528026599995</v>
+        <v>85.768324136700002</v>
       </c>
       <c r="C50">
-        <v>95.130026340499995</v>
+        <v>94.988179206799998</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>6.4772576093699996</v>
+        <v>5.38918860257</v>
       </c>
       <c r="B51">
-        <v>74.704492092099997</v>
+        <v>84.822696447400006</v>
       </c>
       <c r="C51">
-        <v>95.2245891094</v>
+        <v>95.082741975800005</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>6.5466552972800001</v>
+        <v>5.5520251393300004</v>
       </c>
       <c r="B52">
-        <v>76.926714181899996</v>
+        <v>83.167850971199996</v>
       </c>
       <c r="C52">
-        <v>94.704490899999996</v>
+        <v>95.035463571500003</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>6.7307464778400004</v>
+        <v>5.7470086962</v>
       </c>
       <c r="B53">
-        <v>74.799054861100004</v>
+        <v>83.451539277999998</v>
       </c>
       <c r="C53">
-        <v>94.799053669000003</v>
+        <v>95.508271455799999</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>6.8310596048800001</v>
+        <v>5.7596419006600001</v>
       </c>
       <c r="B54">
-        <v>72.434985637699995</v>
+        <v>82.2222232819</v>
       </c>
       <c r="C54">
-        <v>95.130026340499995</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>6.9411933422100001</v>
+        <v>5.94842657447</v>
       </c>
       <c r="B55">
-        <v>73.522460460700003</v>
+        <v>82.033097744000003</v>
       </c>
       <c r="C55">
-        <v>94.751775264700001</v>
+        <v>94.846338033699993</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>7.1675859391700003</v>
+        <v>6.02288506925</v>
       </c>
       <c r="B56">
-        <v>68.085104227100004</v>
+        <v>75.697398185699996</v>
       </c>
       <c r="C56">
-        <v>95.413708686800007</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>7.16887935996</v>
+        <v>6.1141394078699998</v>
       </c>
       <c r="B57">
-        <v>72.104018926600006</v>
+        <v>78.817969560600005</v>
       </c>
       <c r="C57">
-        <v>95.2245891094</v>
+        <v>95.271867513700002</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>7.3505960404900001</v>
+        <v>6.1596941202900002</v>
       </c>
       <c r="B58">
-        <v>69.929075241099994</v>
+        <v>79.527187347400002</v>
       </c>
       <c r="C58">
-        <v>95.319151878400007</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>7.5469382107299996</v>
+        <v>6.3661403954000004</v>
       </c>
       <c r="B59">
-        <v>66.288417577700002</v>
+        <v>77.399528026599995</v>
       </c>
       <c r="C59">
-        <v>94.846338033699993</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>7.5527459383000002</v>
+        <v>6.4772576093699996</v>
       </c>
       <c r="B60">
-        <v>68.416076898599997</v>
+        <v>74.704492092099997</v>
       </c>
       <c r="C60">
-        <v>94.704490899999996</v>
+        <v>95.2245891094</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>7.7263131737700004</v>
+        <v>6.5466552972800001</v>
       </c>
       <c r="B61">
-        <v>66.855794191399994</v>
+        <v>76.926714181899996</v>
       </c>
       <c r="C61">
-        <v>94.988179206799998</v>
+        <v>94.704490899999996</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>7.9292826354499999</v>
+        <v>6.7147158086300003</v>
       </c>
       <c r="B62">
-        <v>61.3711595535</v>
+        <v>69.692671298999997</v>
       </c>
       <c r="C62">
-        <v>95.177304744699995</v>
+        <v>95.035463571500003</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>7.9634889960299997</v>
+        <v>6.7307464778400004</v>
       </c>
       <c r="B63">
-        <v>63.829785585400003</v>
+        <v>74.799054861100004</v>
       </c>
       <c r="C63">
-        <v>94.468086957899999</v>
+        <v>94.799053669000003</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>8.12417864799</v>
+        <v>6.8310596048800001</v>
       </c>
       <c r="B64">
-        <v>62.6004755497</v>
+        <v>72.434985637699995</v>
       </c>
       <c r="C64">
-        <v>94.657212495799996</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>8.2402460277100005</v>
+        <v>6.9411933422100001</v>
       </c>
       <c r="B65">
-        <v>59.7635924816</v>
+        <v>73.522460460700003</v>
       </c>
       <c r="C65">
-        <v>95.177304744699995</v>
+        <v>94.751775264700001</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>8.3580836653699997</v>
+        <v>7.1675859391700003</v>
       </c>
       <c r="B66">
-        <v>61.938536167099997</v>
+        <v>68.085104227100004</v>
       </c>
       <c r="C66">
-        <v>95.130026340499995</v>
+        <v>95.413708686800007</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>8.5701450705499997</v>
+        <v>7.16887935996</v>
       </c>
       <c r="B67">
-        <v>58.1560254097</v>
+        <v>72.104018926600006</v>
       </c>
       <c r="C67">
-        <v>95.319151878400007</v>
+        <v>95.2245891094</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>8.6368195712600002</v>
+        <v>7.3505960404900001</v>
       </c>
       <c r="B68">
-        <v>53.806143999100001</v>
+        <v>69.929075241099994</v>
       </c>
       <c r="C68">
-        <v>94.657212495799996</v>
+        <v>95.319151878400007</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>8.7157011032099998</v>
+        <v>7.4646994471500001</v>
       </c>
       <c r="B69">
-        <v>56.501179933499998</v>
+        <v>63.829785585400003</v>
       </c>
       <c r="C69">
         <v>95.035463571500003</v>
@@ -6305,43 +7584,43 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>8.9415967464400001</v>
+        <v>7.5469382107299996</v>
       </c>
       <c r="B70">
-        <v>52.198582887599997</v>
+        <v>66.288417577700002</v>
       </c>
       <c r="C70">
-        <v>94.893616437899993</v>
+        <v>94.846338033699993</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>8.9483954012400009</v>
+        <v>7.5527459383000002</v>
       </c>
       <c r="B71">
-        <v>54.893618822100002</v>
+        <v>68.416076898599997</v>
       </c>
       <c r="C71">
-        <v>94.940900802599998</v>
+        <v>94.704490899999996</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>9.1264292597800001</v>
+        <v>7.7263131737700004</v>
       </c>
       <c r="B72">
-        <v>53.286051750200002</v>
+        <v>66.855794191399994</v>
       </c>
       <c r="C72">
-        <v>94.562649726900005</v>
+        <v>94.988179206799998</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>9.3606032431100008</v>
+        <v>7.9292826354499999</v>
       </c>
       <c r="B73">
-        <v>49.267140030900002</v>
+        <v>61.3711595535</v>
       </c>
       <c r="C73">
         <v>95.177304744699995</v>
@@ -6349,153 +7628,153 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>9.3626268207999992</v>
+        <v>7.9634889960299997</v>
       </c>
       <c r="B74">
-        <v>51.914894580800002</v>
+        <v>63.829785585400003</v>
       </c>
       <c r="C74">
-        <v>94.846338033699993</v>
+        <v>94.468086957899999</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>9.5303341746299992</v>
+        <v>8.0996342003299997</v>
       </c>
       <c r="B75">
-        <v>51.3947963715</v>
+        <v>58.1560254097</v>
       </c>
       <c r="C75">
-        <v>94.846338033699993</v>
+        <v>95.035463571500003</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>9.6632309258000006</v>
+        <v>8.12417864799</v>
       </c>
       <c r="B76">
-        <v>48.037824034700002</v>
+        <v>62.6004755497</v>
       </c>
       <c r="C76">
-        <v>94.799053669000003</v>
+        <v>94.657212495799996</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>9.6936851739899996</v>
+        <v>8.2402460277100005</v>
       </c>
       <c r="B77">
-        <v>48.605200648299999</v>
+        <v>59.7635924816</v>
       </c>
       <c r="C77">
-        <v>94.799053669000003</v>
+        <v>95.177304744699995</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>9.9128395318999996</v>
+        <v>8.3580836653699997</v>
       </c>
       <c r="B78">
-        <v>47.706854343400003</v>
+        <v>61.938536167099997</v>
       </c>
       <c r="C78">
-        <v>94.988179206799998</v>
+        <v>95.130026340499995</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>9.99718755484</v>
+        <v>8.5701450705499997</v>
       </c>
       <c r="B79">
-        <v>45.862883329399999</v>
+        <v>58.1560254097</v>
       </c>
       <c r="C79">
-        <v>94.751775264700001</v>
+        <v>95.319151878400007</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>10.1416148245</v>
+        <v>8.6368195712600002</v>
       </c>
       <c r="B80">
-        <v>46.146571636200001</v>
+        <v>53.806143999100001</v>
       </c>
       <c r="C80">
-        <v>95.413708686800007</v>
+        <v>94.657212495799996</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>10.3075586259</v>
+        <v>8.7157011032099998</v>
       </c>
       <c r="B81">
-        <v>45.2482283115</v>
+        <v>56.501179933499998</v>
       </c>
       <c r="C81">
-        <v>94.846338033699993</v>
+        <v>95.035463571500003</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>10.382410138799999</v>
+        <v>8.7467186152899998</v>
       </c>
       <c r="B82">
-        <v>43.735224008599999</v>
+        <v>54.940897226300002</v>
       </c>
       <c r="C82">
-        <v>94.326239824300004</v>
+        <v>94.704490899999996</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>10.539211332800001</v>
+        <v>8.9415967464400001</v>
       </c>
       <c r="B83">
-        <v>43.687942624100003</v>
+        <v>52.198582887599997</v>
       </c>
       <c r="C83">
-        <v>95.082741975800005</v>
+        <v>94.893616437899993</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>10.718511045</v>
+        <v>8.9483954012400009</v>
       </c>
       <c r="B84">
-        <v>42.033097147900001</v>
+        <v>54.893618822100002</v>
       </c>
       <c r="C84">
-        <v>94.988179206799998</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>10.7266910374</v>
+        <v>9.1264292597800001</v>
       </c>
       <c r="B85">
-        <v>43.593379855199998</v>
+        <v>53.286051750200002</v>
       </c>
       <c r="C85">
-        <v>94.988179206799998</v>
+        <v>94.562649726900005</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>10.9144069254</v>
+        <v>9.3606032431100008</v>
       </c>
       <c r="B86">
-        <v>41.087469458599998</v>
+        <v>49.267140030900002</v>
       </c>
       <c r="C86">
-        <v>94.846338033699993</v>
+        <v>95.177304744699995</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>11.0330060124</v>
+        <v>9.3626268207999992</v>
       </c>
       <c r="B87">
-        <v>39.952719211599998</v>
+        <v>51.914894580800002</v>
       </c>
       <c r="C87">
         <v>94.846338033699993</v>
@@ -6503,175 +7782,175 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>11.149459332199999</v>
+        <v>9.4496212899700005</v>
       </c>
       <c r="B88">
-        <v>41.323876380900003</v>
+        <v>49.030733108500002</v>
       </c>
       <c r="C88">
-        <v>94.893616437899993</v>
+        <v>94.751775264700001</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>11.314560473</v>
+        <v>9.5303341746299992</v>
       </c>
       <c r="B89">
-        <v>40.000000596</v>
+        <v>51.3947963715</v>
       </c>
       <c r="C89">
-        <v>94.515365362200001</v>
+        <v>94.846338033699993</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>11.377099901399999</v>
+        <v>9.6632309258000006</v>
       </c>
       <c r="B90">
-        <v>39.2434984446</v>
+        <v>48.037824034700002</v>
       </c>
       <c r="C90">
-        <v>94.420802593199994</v>
+        <v>94.799053669000003</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>11.5306973457</v>
+        <v>9.6936851739899996</v>
       </c>
       <c r="B91">
-        <v>39.196217060099997</v>
+        <v>48.605200648299999</v>
       </c>
       <c r="C91">
-        <v>94.562649726900005</v>
+        <v>94.799053669000003</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>11.689912527800001</v>
+        <v>9.9128395318999996</v>
       </c>
       <c r="B92">
-        <v>37.304964661600003</v>
+        <v>47.706854343400003</v>
       </c>
       <c r="C92">
-        <v>95.271867513700002</v>
+        <v>94.988179206799998</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>11.7016971111</v>
+        <v>9.99718755484</v>
       </c>
       <c r="B93">
-        <v>38.912528753300002</v>
+        <v>45.862883329399999</v>
       </c>
       <c r="C93">
-        <v>94.846338033699993</v>
+        <v>94.751775264700001</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>11.9296260178</v>
+        <v>10.1132549345</v>
       </c>
       <c r="B94">
-        <v>37.635934352900001</v>
+        <v>44.633570313500002</v>
       </c>
       <c r="C94">
-        <v>94.420802593199994</v>
+        <v>94.609928131100006</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>12.040948867799999</v>
+        <v>10.1416148245</v>
       </c>
       <c r="B95">
-        <v>36.737588047999999</v>
+        <v>46.146571636200001</v>
       </c>
       <c r="C95">
-        <v>94.609928131100006</v>
+        <v>95.413708686800007</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>12.1441662312</v>
+        <v>10.3075586259</v>
       </c>
       <c r="B96">
-        <v>37.115839123699999</v>
+        <v>45.2482283115</v>
       </c>
       <c r="C96">
-        <v>94.657212495799996</v>
+        <v>94.846338033699993</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>12.276149541100001</v>
+        <v>10.382410138799999</v>
       </c>
       <c r="B97">
-        <v>36.217492818799997</v>
+        <v>43.735224008599999</v>
       </c>
       <c r="C97">
-        <v>94.609928131100006</v>
+        <v>94.326239824300004</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>12.3827770352</v>
+        <v>10.539211332800001</v>
       </c>
       <c r="B98">
-        <v>35.744681954400001</v>
+        <v>43.687942624100003</v>
       </c>
       <c r="C98">
-        <v>94.657212495799996</v>
+        <v>95.082741975800005</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>12.493211776000001</v>
+        <v>10.718511045</v>
       </c>
       <c r="B99">
-        <v>36.028370261200003</v>
+        <v>42.033097147900001</v>
       </c>
       <c r="C99">
-        <v>94.609928131100006</v>
+        <v>94.988179206799998</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>12.6758441329</v>
+        <v>10.7266910374</v>
       </c>
       <c r="B100">
-        <v>35.508275032</v>
+        <v>43.593379855199998</v>
       </c>
       <c r="C100">
-        <v>94.184398651099997</v>
+        <v>94.988179206799998</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>12.7024188638</v>
+        <v>10.770766437100001</v>
       </c>
       <c r="B101">
-        <v>34.799054265000002</v>
+        <v>41.040188074100001</v>
       </c>
       <c r="C101">
-        <v>94.515365362200001</v>
+        <v>94.278961420100003</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>12.895911932000001</v>
+        <v>10.9144069254</v>
       </c>
       <c r="B102">
-        <v>34.609928727099998</v>
+        <v>41.087469458599998</v>
       </c>
       <c r="C102">
-        <v>94.562649726900005</v>
+        <v>94.846338033699993</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>13.030539452999999</v>
+        <v>11.0330060124</v>
       </c>
       <c r="B103">
-        <v>34.137114882500001</v>
+        <v>39.952719211599998</v>
       </c>
       <c r="C103">
         <v>94.846338033699993</v>
@@ -6679,428 +7958,428 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>13.1089776754</v>
+        <v>11.149459332199999</v>
       </c>
       <c r="B104">
-        <v>35.082742571799997</v>
+        <v>41.323876380900003</v>
       </c>
       <c r="C104">
-        <v>94.326239824300004</v>
+        <v>94.893616437899993</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>13.2771372795</v>
+        <v>11.314560473</v>
       </c>
       <c r="B105">
-        <v>33.806145191200002</v>
+        <v>40.000000596</v>
       </c>
       <c r="C105">
-        <v>94.751775264700001</v>
+        <v>94.515365362200001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>13.3755937219</v>
+        <v>11.377099901399999</v>
       </c>
       <c r="B106">
-        <v>33.617022633600001</v>
+        <v>39.2434984446</v>
       </c>
       <c r="C106">
-        <v>94.940900802599998</v>
+        <v>94.420802593199994</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>13.531486689999999</v>
+        <v>11.391343921400001</v>
       </c>
       <c r="B107">
-        <v>32.813239097599997</v>
+        <v>38.392433524099999</v>
       </c>
       <c r="C107">
-        <v>94.373524188999994</v>
+        <v>94.751775264700001</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>13.650694489499999</v>
+        <v>11.5306973457</v>
       </c>
       <c r="B108">
-        <v>31.678485870399999</v>
+        <v>39.196217060099997</v>
       </c>
       <c r="C108">
-        <v>94.373524188999994</v>
+        <v>94.562649726900005</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>13.748960197000001</v>
+        <v>11.689912527800001</v>
       </c>
       <c r="B109">
-        <v>32.955083250999998</v>
+        <v>37.304964661600003</v>
       </c>
       <c r="C109">
-        <v>94.940900802599998</v>
+        <v>95.271867513700002</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>13.883543014500001</v>
+        <v>11.7016971111</v>
       </c>
       <c r="B110">
-        <v>31.394800543799999</v>
+        <v>38.912528753300002</v>
       </c>
       <c r="C110">
-        <v>94.940900802599998</v>
+        <v>94.846338033699993</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>14.013415575</v>
+        <v>11.9296260178</v>
       </c>
       <c r="B111">
-        <v>29.9290776253</v>
+        <v>37.635934352900001</v>
       </c>
       <c r="C111">
-        <v>94.042551517500002</v>
+        <v>94.420802593199994</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>14.054460823499999</v>
+        <v>11.9836620986</v>
       </c>
       <c r="B112">
-        <v>32.009455561599999</v>
+        <v>37.2576832771</v>
       </c>
       <c r="C112">
-        <v>94.137114286400006</v>
+        <v>94.609928131100006</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>14.309167861900001</v>
+        <v>12.040948867799999</v>
       </c>
       <c r="B113">
-        <v>30.354610085499999</v>
+        <v>36.737588047999999</v>
       </c>
       <c r="C113">
-        <v>94.704490899999996</v>
+        <v>94.609928131100006</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>14.3386825919</v>
+        <v>12.1441662312</v>
       </c>
       <c r="B114">
-        <v>30.354610085499999</v>
+        <v>37.115839123699999</v>
       </c>
       <c r="C114">
-        <v>94.704490899999996</v>
+        <v>94.657212495799996</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>14.489260315899999</v>
+        <v>12.276149541100001</v>
       </c>
       <c r="B115">
-        <v>30.212765932100002</v>
+        <v>36.217492818799997</v>
       </c>
       <c r="C115">
-        <v>94.751775264700001</v>
+        <v>94.609928131100006</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>14.6312907338</v>
+        <v>12.3827770352</v>
       </c>
       <c r="B116">
-        <v>29.078012704799999</v>
+        <v>35.744681954400001</v>
       </c>
       <c r="C116">
-        <v>94.420802593199994</v>
+        <v>94.657212495799996</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>14.7162914276</v>
+        <v>12.493211776000001</v>
       </c>
       <c r="B117">
-        <v>30.260047316600001</v>
+        <v>36.028370261200003</v>
       </c>
       <c r="C117">
-        <v>94.137114286400006</v>
+        <v>94.609928131100006</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>14.895087480500001</v>
+        <v>12.588201463200001</v>
       </c>
       <c r="B118">
-        <v>29.5035451651</v>
+        <v>35.602837801</v>
       </c>
       <c r="C118">
-        <v>94.468086957899999</v>
+        <v>95.177304744699995</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>14.9637803435</v>
+        <v>12.6758441329</v>
       </c>
       <c r="B119">
-        <v>28.652483224899999</v>
+        <v>35.508275032</v>
       </c>
       <c r="C119">
-        <v>93.900710344299995</v>
+        <v>94.184398651099997</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>15.109680593</v>
+        <v>12.7024188638</v>
       </c>
       <c r="B120">
-        <v>29.598107934000002</v>
+        <v>34.799054265000002</v>
       </c>
       <c r="C120">
-        <v>94.184398651099997</v>
+        <v>94.515365362200001</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>15.2712509036</v>
+        <v>12.895911932000001</v>
       </c>
       <c r="B121">
-        <v>27.990543842299999</v>
+        <v>34.609928727099998</v>
       </c>
       <c r="C121">
-        <v>94.515365362200001</v>
+        <v>94.562649726900005</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>15.290054678900001</v>
+        <v>13.030539452999999</v>
       </c>
       <c r="B122">
-        <v>27.706855535500001</v>
+        <v>34.137114882500001</v>
       </c>
       <c r="C122">
-        <v>94.420802593199994</v>
+        <v>94.846338033699993</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>15.5378133059</v>
+        <v>13.1089776754</v>
       </c>
       <c r="B123">
-        <v>27.5177299976</v>
+        <v>35.082742571799997</v>
       </c>
       <c r="C123">
-        <v>94.799053669000003</v>
+        <v>94.326239824300004</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>15.5803725123</v>
+        <v>13.221918046500001</v>
       </c>
       <c r="B124">
-        <v>26.524823904000002</v>
+        <v>34.799054265000002</v>
       </c>
       <c r="C124">
-        <v>94.562649726900005</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>15.695174038399999</v>
+        <v>13.2771372795</v>
       </c>
       <c r="B125">
-        <v>26.572105288500001</v>
+        <v>33.806145191200002</v>
       </c>
       <c r="C125">
-        <v>93.522459268600002</v>
+        <v>94.751775264700001</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>15.8474713564</v>
+        <v>13.3755937219</v>
       </c>
       <c r="B126">
-        <v>26.193854212800002</v>
+        <v>33.617022633600001</v>
       </c>
       <c r="C126">
-        <v>94.278961420100003</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>15.8760026097</v>
+        <v>13.531486689999999</v>
       </c>
       <c r="B127">
-        <v>27.423167228699999</v>
+        <v>32.813239097599997</v>
       </c>
       <c r="C127">
-        <v>94.704490899999996</v>
+        <v>94.373524188999994</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>16.0815268755</v>
+        <v>13.650694489499999</v>
       </c>
       <c r="B128">
-        <v>26.4775425196</v>
+        <v>31.678485870399999</v>
       </c>
       <c r="C128">
-        <v>94.468086957899999</v>
+        <v>94.373524188999994</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>16.205792128999999</v>
+        <v>13.748960197000001</v>
       </c>
       <c r="B129">
-        <v>25.484633445699998</v>
+        <v>32.955083250999998</v>
       </c>
       <c r="C129">
-        <v>93.947988748599997</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>16.242492198899999</v>
+        <v>13.7797087431</v>
       </c>
       <c r="B130">
-        <v>24.822695553300001</v>
+        <v>32.765957713100001</v>
       </c>
       <c r="C130">
-        <v>94.042551517500002</v>
+        <v>94.468086957899999</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>16.439345479</v>
+        <v>13.883543014500001</v>
       </c>
       <c r="B131">
-        <v>25.531914830200002</v>
+        <v>31.394800543799999</v>
       </c>
       <c r="C131">
-        <v>94.751775264700001</v>
+        <v>94.940900802599998</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>16.539472341500002</v>
+        <v>14.013415575</v>
       </c>
       <c r="B132">
-        <v>25.059100985499999</v>
+        <v>29.9290776253</v>
       </c>
       <c r="C132">
-        <v>94.420802593199994</v>
+        <v>94.042551517500002</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>16.679888963700002</v>
+        <v>14.054460823499999</v>
       </c>
       <c r="B133">
-        <v>24.444444477600001</v>
+        <v>32.009455561599999</v>
       </c>
       <c r="C133">
-        <v>93.900710344299995</v>
+        <v>94.137114286400006</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>16.788627207299999</v>
+        <v>14.309167861900001</v>
       </c>
       <c r="B134">
-        <v>23.4988182783</v>
+        <v>30.354610085499999</v>
       </c>
       <c r="C134">
-        <v>93.569737672800002</v>
+        <v>94.704490899999996</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>16.882580518699999</v>
+        <v>14.3386825919</v>
       </c>
       <c r="B135">
-        <v>25.106382369999999</v>
+        <v>30.354610085499999</v>
       </c>
       <c r="C135">
-        <v>94.278961420100003</v>
+        <v>94.704490899999996</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>17.063316702800002</v>
+        <v>14.423693716500001</v>
       </c>
       <c r="B136">
-        <v>24.6335700154</v>
+        <v>31.300237774799999</v>
       </c>
       <c r="C136">
-        <v>94.468086957899999</v>
+        <v>94.893616437899993</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>17.137971520400001</v>
+        <v>14.489260315899999</v>
       </c>
       <c r="B137">
-        <v>22.411347925699999</v>
+        <v>30.212765932100002</v>
       </c>
       <c r="C137">
-        <v>93.995273113300001</v>
+        <v>94.751775264700001</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>17.2692045569</v>
+        <v>14.6312907338</v>
       </c>
       <c r="B138">
-        <v>24.444444477600001</v>
+        <v>29.078012704799999</v>
       </c>
       <c r="C138">
-        <v>94.089835882200006</v>
+        <v>94.420802593199994</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>17.4363300204</v>
+        <v>14.7162914276</v>
       </c>
       <c r="B139">
-        <v>21.796689927599999</v>
+        <v>30.260047316600001</v>
       </c>
       <c r="C139">
-        <v>93.947988748599997</v>
+        <v>94.137114286400006</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>17.495808005299999</v>
+        <v>14.895087480500001</v>
       </c>
       <c r="B140">
-        <v>22.931441664699999</v>
+        <v>29.5035451651</v>
       </c>
       <c r="C140">
-        <v>94.278961420100003</v>
+        <v>94.468086957899999</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>17.648215591900001</v>
+        <v>14.9519369006</v>
       </c>
       <c r="B141">
-        <v>23.1205672026</v>
+        <v>30.118203163099999</v>
       </c>
       <c r="C141">
-        <v>94.657212495799996</v>
+        <v>94.326239824300004</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>17.712734639600001</v>
+        <v>14.9637803435</v>
       </c>
       <c r="B142">
-        <v>20.283688604799998</v>
+        <v>28.652483224899999</v>
       </c>
       <c r="C142">
         <v>93.900710344299995</v>
@@ -7108,219 +8387,219 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>17.888937890499999</v>
+        <v>15.109680593</v>
       </c>
       <c r="B143">
-        <v>21.560283005199999</v>
+        <v>29.598107934000002</v>
       </c>
       <c r="C143">
-        <v>94.231677055399999</v>
+        <v>94.184398651099997</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>18.034078180800002</v>
+        <v>15.2712509036</v>
       </c>
       <c r="B144">
-        <v>19.007092714300001</v>
+        <v>27.990543842299999</v>
       </c>
       <c r="C144">
-        <v>94.468086957899999</v>
+        <v>94.515365362200001</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>18.0692568421</v>
+        <v>15.290054678900001</v>
       </c>
       <c r="B145">
-        <v>20.330969989300002</v>
+        <v>27.706855535500001</v>
       </c>
       <c r="C145">
-        <v>93.853425979600004</v>
+        <v>94.420802593199994</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>18.251483142400001</v>
+        <v>15.5023440719</v>
       </c>
       <c r="B146">
-        <v>19.007092714300001</v>
+        <v>28.1796693802</v>
       </c>
       <c r="C146">
-        <v>94.468086957899999</v>
+        <v>93.806147575400004</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>18.2522520423</v>
+        <v>15.5378133059</v>
       </c>
       <c r="B147">
-        <v>20.7565009594</v>
+        <v>27.5177299976</v>
       </c>
       <c r="C147">
-        <v>93.711584806399998</v>
+        <v>94.799053669000003</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>18.487901985600001</v>
+        <v>15.5803725123</v>
       </c>
       <c r="B148">
-        <v>19.669030606700002</v>
+        <v>26.524823904000002</v>
       </c>
       <c r="C148">
-        <v>94.089835882200006</v>
+        <v>94.562649726900005</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>18.521741032600001</v>
+        <v>15.695174038399999</v>
       </c>
       <c r="B149">
-        <v>18.297871947299999</v>
+        <v>26.572105288500001</v>
       </c>
       <c r="C149">
-        <v>94.278961420100003</v>
+        <v>93.522459268600002</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>18.664218485399999</v>
+        <v>15.8474713564</v>
       </c>
       <c r="B150">
-        <v>20.7565009594</v>
+        <v>26.193854212800002</v>
       </c>
       <c r="C150">
-        <v>93.995273113300001</v>
+        <v>94.278961420100003</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>18.835499882699999</v>
+        <v>15.8760026097</v>
       </c>
       <c r="B151">
-        <v>17.6832154393</v>
+        <v>27.423167228699999</v>
       </c>
       <c r="C151">
-        <v>94.373524188999994</v>
+        <v>94.704490899999996</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>18.8561946154</v>
+        <v>16.031029820400001</v>
       </c>
       <c r="B152">
-        <v>18.8179671764</v>
+        <v>27.375885844199999</v>
       </c>
       <c r="C152">
-        <v>93.947988748599997</v>
+        <v>94.373524188999994</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>19.051784276999999</v>
+        <v>16.0815268755</v>
       </c>
       <c r="B153">
-        <v>18.108746409399998</v>
+        <v>26.4775425196</v>
       </c>
       <c r="C153">
-        <v>94.137114286400006</v>
+        <v>94.468086957899999</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>19.2176029086</v>
+        <v>16.205792128999999</v>
       </c>
       <c r="B154">
-        <v>15.035460889299999</v>
+        <v>25.484633445699998</v>
       </c>
       <c r="C154">
-        <v>94.278961420100003</v>
+        <v>93.947988748599997</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>19.250380992899998</v>
+        <v>16.242492198899999</v>
       </c>
       <c r="B155">
-        <v>17.163120210199999</v>
+        <v>24.822695553300001</v>
       </c>
       <c r="C155">
-        <v>93.947988748599997</v>
+        <v>94.042551517500002</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>19.443149864700001</v>
+        <v>16.439345479</v>
       </c>
       <c r="B156">
-        <v>17.2576829791</v>
+        <v>25.531914830200002</v>
       </c>
       <c r="C156">
-        <v>93.333333730700005</v>
+        <v>94.751775264700001</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>19.454641640199998</v>
+        <v>16.539472341500002</v>
       </c>
       <c r="B157">
-        <v>15.2718678117</v>
+        <v>25.059100985499999</v>
       </c>
       <c r="C157">
-        <v>93.900710344299995</v>
+        <v>94.420802593199994</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>19.636507332299999</v>
+        <v>16.604027152099999</v>
       </c>
       <c r="B158">
-        <v>16.406619548799998</v>
+        <v>25.721040368099999</v>
       </c>
       <c r="C158">
-        <v>93.2387709618</v>
+        <v>94.089835882200006</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>19.712717831100001</v>
+        <v>16.679888963700002</v>
       </c>
       <c r="B159">
-        <v>16.5011823177</v>
+        <v>24.444444477600001</v>
       </c>
       <c r="C159">
-        <v>94.231677055399999</v>
+        <v>93.900710344299995</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>19.8663726449</v>
+        <v>16.788627207299999</v>
       </c>
       <c r="B160">
-        <v>15.697400271899999</v>
+        <v>23.4988182783</v>
       </c>
       <c r="C160">
-        <v>93.806147575400004</v>
+        <v>93.569737672800002</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>19.995565712499999</v>
+        <v>16.882580518699999</v>
       </c>
       <c r="B161">
-        <v>14.9881795049</v>
+        <v>25.106382369999999</v>
       </c>
       <c r="C161">
-        <v>93.617022037500007</v>
+        <v>94.278961420100003</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>20.2751353383</v>
+        <v>17.063316702800002</v>
       </c>
       <c r="B162">
-        <v>13.8061463833</v>
+        <v>24.6335700154</v>
       </c>
       <c r="C162">
         <v>94.468086957899999</v>
@@ -7328,447 +8607,1558 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>20.5541998148</v>
+        <v>17.137971520400001</v>
       </c>
       <c r="B163">
-        <v>11.631205678000001</v>
+        <v>22.411347925699999</v>
       </c>
       <c r="C163">
-        <v>93.475174903899998</v>
+        <v>93.995273113300001</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>20.8384871483</v>
+        <v>17.139442265</v>
       </c>
       <c r="B164">
-        <v>12.6241132617</v>
+        <v>25.106382369999999</v>
       </c>
       <c r="C164">
-        <v>94.326239824300004</v>
+        <v>94.562649726900005</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>21.096970140900002</v>
+        <v>17.2692045569</v>
       </c>
       <c r="B165">
-        <v>11.158392578400001</v>
+        <v>24.444444477600001</v>
       </c>
       <c r="C165">
-        <v>93.806147575400004</v>
+        <v>94.089835882200006</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>21.342393755900002</v>
+        <v>17.4363300204</v>
       </c>
       <c r="B166">
-        <v>11.111111193899999</v>
+        <v>21.796689927599999</v>
       </c>
       <c r="C166">
-        <v>93.333333730700005</v>
+        <v>93.947988748599997</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>21.648673713200001</v>
+        <v>17.495808005299999</v>
       </c>
       <c r="B167">
-        <v>9.3617022037499993</v>
+        <v>22.931441664699999</v>
       </c>
       <c r="C167">
-        <v>93.711584806399998</v>
+        <v>94.278961420100003</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>21.962416172000001</v>
+        <v>17.648215591900001</v>
       </c>
       <c r="B168">
-        <v>8.5579194128499996</v>
+        <v>23.1205672026</v>
       </c>
       <c r="C168">
-        <v>93.049645423900003</v>
+        <v>94.657212495799996</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>22.230885922900001</v>
+        <v>17.6599800587</v>
       </c>
       <c r="B169">
-        <v>9.5035463571500003</v>
+        <v>21.843971312000001</v>
       </c>
       <c r="C169">
-        <v>93.475174903899998</v>
+        <v>94.184398651099997</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>22.473841905600001</v>
+        <v>17.712734639600001</v>
       </c>
       <c r="B170">
-        <v>7.4231676757300002</v>
+        <v>20.283688604799998</v>
       </c>
       <c r="C170">
-        <v>93.853425979600004</v>
+        <v>93.900710344299995</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>22.7805823088</v>
+        <v>17.888937890499999</v>
       </c>
       <c r="B171">
-        <v>8.0851063132299998</v>
+        <v>21.560283005199999</v>
       </c>
       <c r="C171">
-        <v>93.664300441699993</v>
+        <v>94.231677055399999</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>22.9377046227</v>
+        <v>18.034078180800002</v>
       </c>
       <c r="B172">
-        <v>6.61938562989</v>
+        <v>19.007092714300001</v>
       </c>
       <c r="C172">
-        <v>93.664300441699993</v>
+        <v>94.468086957899999</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>23.293434083499999</v>
+        <v>18.0692568421</v>
       </c>
       <c r="B173">
-        <v>6.9976359605800003</v>
+        <v>20.330969989300002</v>
       </c>
       <c r="C173">
-        <v>93.2387709618</v>
+        <v>93.853425979600004</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>23.4794020653</v>
+        <v>18.212631344799998</v>
       </c>
       <c r="B174">
-        <v>6.4302600920200002</v>
+        <v>21.087470650699998</v>
       </c>
       <c r="C174">
-        <v>93.853425979600004</v>
+        <v>93.947988748599997</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>23.7497478724</v>
+        <v>18.251483142400001</v>
       </c>
       <c r="B175">
-        <v>6.0520093888000002</v>
+        <v>19.007092714300001</v>
       </c>
       <c r="C175">
-        <v>93.002367019700003</v>
+        <v>94.468086957899999</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>23.990127444300001</v>
+        <v>18.2522520423</v>
       </c>
       <c r="B176">
-        <v>5.2955083548999999</v>
+        <v>20.7565009594</v>
       </c>
       <c r="C176">
-        <v>93.049645423900003</v>
+        <v>93.711584806399998</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>24.232697486900001</v>
+        <v>18.487901985600001</v>
       </c>
       <c r="B177">
-        <v>5.2955083548999999</v>
+        <v>19.669030606700002</v>
       </c>
       <c r="C177">
-        <v>93.475174903899998</v>
+        <v>94.089835882200006</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>24.4838938117</v>
+        <v>18.521741032600001</v>
       </c>
       <c r="B178">
-        <v>4.2080380022500004</v>
+        <v>18.297871947299999</v>
       </c>
       <c r="C178">
-        <v>93.049645423900003</v>
+        <v>94.278961420100003</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>24.759414792099999</v>
+        <v>18.649208545699999</v>
       </c>
       <c r="B179">
-        <v>4.0189124643799996</v>
+        <v>19.810874760200001</v>
       </c>
       <c r="C179">
-        <v>92.624115943899994</v>
+        <v>93.947988748599997</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>24.961751699400001</v>
+        <v>18.664218485399999</v>
       </c>
       <c r="B180">
-        <v>3.4988179802900001</v>
+        <v>20.7565009594</v>
       </c>
       <c r="C180">
-        <v>92.671394348099994</v>
+        <v>93.995273113300001</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>25.231289863600001</v>
+        <v>18.835499882699999</v>
       </c>
       <c r="B181">
-        <v>3.4988179802900001</v>
+        <v>17.6832154393</v>
       </c>
       <c r="C181">
-        <v>93.286049366</v>
+        <v>94.373524188999994</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>25.509545206999999</v>
+        <v>18.8561946154</v>
       </c>
       <c r="B182">
-        <v>3.4988179802900001</v>
+        <v>18.8179671764</v>
       </c>
       <c r="C182">
-        <v>92.671394348099994</v>
+        <v>93.947988748599997</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>25.717386603400001</v>
+        <v>19.051784276999999</v>
       </c>
       <c r="B183">
-        <v>2.8841607272599998</v>
+        <v>18.108746409399998</v>
       </c>
       <c r="C183">
-        <v>92.245864868200002</v>
+        <v>94.137114286400006</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>25.9230405092</v>
+        <v>19.144958257700001</v>
       </c>
       <c r="B184">
-        <v>2.7895981445900002</v>
+        <v>19.148936867700002</v>
       </c>
       <c r="C184">
-        <v>92.955082654999998</v>
+        <v>93.664300441699993</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>26.225847005799999</v>
+        <v>19.2176029086</v>
       </c>
       <c r="B185">
-        <v>1.8912529572800001</v>
+        <v>15.035460889299999</v>
       </c>
       <c r="C185">
-        <v>92.340427637100007</v>
+        <v>94.278961420100003</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>26.419717073400001</v>
+        <v>19.250380992899998</v>
       </c>
       <c r="B186">
-        <v>2.45862882584</v>
+        <v>17.163120210199999</v>
       </c>
       <c r="C186">
-        <v>92.718678712799999</v>
+        <v>93.947988748599997</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>26.653021574</v>
+        <v>19.443149864700001</v>
       </c>
       <c r="B187">
-        <v>1.9858155399599999</v>
+        <v>17.2576829791</v>
       </c>
       <c r="C187">
-        <v>91.347515583000003</v>
+        <v>93.333333730700005</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>26.870548725100001</v>
+        <v>19.454641640199998</v>
       </c>
       <c r="B188">
-        <v>1.65484640747</v>
+        <v>15.2718678117</v>
       </c>
       <c r="C188">
-        <v>92.104017734500005</v>
+        <v>93.900710344299995</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>27.185249328600001</v>
+        <v>19.636507332299999</v>
       </c>
       <c r="B189">
-        <v>1.65484640747</v>
+        <v>16.406619548799998</v>
       </c>
       <c r="C189">
-        <v>91.820329427700003</v>
+        <v>93.2387709618</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>27.384942769999999</v>
+        <v>19.666595757</v>
       </c>
       <c r="B190">
-        <v>1.56028373167</v>
+        <v>16.926713287799998</v>
       </c>
       <c r="C190">
-        <v>91.9621765614</v>
+        <v>93.947988748599997</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>27.559721469900001</v>
+        <v>19.712717831100001</v>
       </c>
       <c r="B191">
-        <v>1.5130023472</v>
+        <v>16.5011823177</v>
       </c>
       <c r="C191">
-        <v>91.914892196699995</v>
+        <v>94.231677055399999</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>27.812674641600001</v>
+        <v>19.8663726449</v>
       </c>
       <c r="B192">
-        <v>1.08747044578</v>
+        <v>15.697400271899999</v>
       </c>
       <c r="C192">
-        <v>91.867613792399993</v>
+        <v>93.806147575400004</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>27.9813349247</v>
+        <v>19.995565712499999</v>
       </c>
       <c r="B193">
-        <v>0.99290776997800001</v>
+        <v>14.9881795049</v>
       </c>
       <c r="C193">
-        <v>91.300237178800003</v>
+        <v>93.617022037500007</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>28.2340824604</v>
+        <v>20.159192383299999</v>
       </c>
       <c r="B194">
-        <v>1.0401891544499999</v>
+        <v>16.359338164299999</v>
       </c>
       <c r="C194">
-        <v>91.111111640900006</v>
+        <v>93.853425979600004</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>28.4778505564</v>
+        <v>20.2751353383</v>
       </c>
       <c r="B195">
-        <v>0.52009457722300001</v>
+        <v>13.8061463833</v>
       </c>
       <c r="C195">
-        <v>90.2600467205</v>
+        <v>94.468086957899999</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>28.626817464799998</v>
+        <v>20.5541998148</v>
       </c>
       <c r="B196">
-        <v>0.89834518730599999</v>
+        <v>11.631205678000001</v>
       </c>
       <c r="C196">
-        <v>91.489362716700001</v>
+        <v>93.475174903899998</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>28.8916170597</v>
+        <v>20.594201982000001</v>
       </c>
       <c r="B197">
-        <v>0.61465720646099997</v>
+        <v>14.6099284291</v>
       </c>
       <c r="C197">
-        <v>90.827423334100004</v>
+        <v>92.907804250699996</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>29.068389535000001</v>
+        <v>20.8384871483</v>
       </c>
       <c r="B198">
-        <v>0.52009457722300001</v>
+        <v>12.6241132617</v>
       </c>
       <c r="C198">
-        <v>90.543735027300002</v>
+        <v>94.326239824300004</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>29.334947466900001</v>
+        <v>21.083462238300001</v>
       </c>
       <c r="B199">
-        <v>0.472813239321</v>
+        <v>12.955082953</v>
       </c>
       <c r="C199">
-        <v>90.449172258399997</v>
+        <v>93.191486597099995</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>29.463732242599999</v>
+        <v>21.096970140900002</v>
       </c>
       <c r="B200">
-        <v>0.28368793427900002</v>
+        <v>11.158392578400001</v>
       </c>
       <c r="C200">
-        <v>90.732860565199999</v>
+        <v>93.806147575400004</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>29.682788252800002</v>
+        <v>21.342393755900002</v>
       </c>
       <c r="B201">
-        <v>0.23640661966099999</v>
+        <v>11.111111193899999</v>
       </c>
       <c r="C201">
-        <v>89.787232875800001</v>
+        <v>93.333333730700005</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
+        <v>21.554508805299999</v>
+      </c>
+      <c r="B202">
+        <v>11.4420801401</v>
+      </c>
+      <c r="C202">
+        <v>93.664300441699993</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>21.648673713200001</v>
+      </c>
+      <c r="B203">
+        <v>9.3617022037499993</v>
+      </c>
+      <c r="C203">
+        <v>93.711584806399998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>21.962416172000001</v>
+      </c>
+      <c r="B204">
+        <v>8.5579194128499996</v>
+      </c>
+      <c r="C204">
+        <v>93.049645423900003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>21.9955250621</v>
+      </c>
+      <c r="B205">
+        <v>12.1040187776</v>
+      </c>
+      <c r="C205">
+        <v>92.860519886000006</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>22.230885922900001</v>
+      </c>
+      <c r="B206">
+        <v>9.5035463571500003</v>
+      </c>
+      <c r="C206">
+        <v>93.475174903899998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>22.391542792300001</v>
+      </c>
+      <c r="B207">
+        <v>9.0307325124699993</v>
+      </c>
+      <c r="C207">
+        <v>93.617022037500007</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>22.473841905600001</v>
+      </c>
+      <c r="B208">
+        <v>7.4231676757300002</v>
+      </c>
+      <c r="C208">
+        <v>93.853425979600004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>22.7805823088</v>
+      </c>
+      <c r="B209">
+        <v>8.0851063132299998</v>
+      </c>
+      <c r="C209">
+        <v>93.664300441699993</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>22.855642437899998</v>
+      </c>
+      <c r="B210">
+        <v>9.0780138969399999</v>
+      </c>
+      <c r="C210">
+        <v>93.475174903899998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>22.9377046227</v>
+      </c>
+      <c r="B211">
+        <v>6.61938562989</v>
+      </c>
+      <c r="C211">
+        <v>93.664300441699993</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>23.274670541300001</v>
+      </c>
+      <c r="B212">
+        <v>8.0378249287599992</v>
+      </c>
+      <c r="C212">
+        <v>93.002367019700003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>23.293434083499999</v>
+      </c>
+      <c r="B213">
+        <v>6.9976359605800003</v>
+      </c>
+      <c r="C213">
+        <v>93.2387709618</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>23.4794020653</v>
+      </c>
+      <c r="B214">
+        <v>6.4302600920200002</v>
+      </c>
+      <c r="C214">
+        <v>93.853425979600004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>23.649856448200001</v>
+      </c>
+      <c r="B215">
+        <v>7.3286049067999999</v>
+      </c>
+      <c r="C215">
+        <v>93.286049366</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>23.7497478724</v>
+      </c>
+      <c r="B216">
+        <v>6.0520093888000002</v>
+      </c>
+      <c r="C216">
+        <v>93.002367019700003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>23.990127444300001</v>
+      </c>
+      <c r="B217">
+        <v>5.2955083548999999</v>
+      </c>
+      <c r="C217">
+        <v>93.049645423900003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>24.078704416800001</v>
+      </c>
+      <c r="B218">
+        <v>7.3286049067999999</v>
+      </c>
+      <c r="C218">
+        <v>93.096923828100003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>24.232697486900001</v>
+      </c>
+      <c r="B219">
+        <v>5.2955083548999999</v>
+      </c>
+      <c r="C219">
+        <v>93.475174903899998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>24.4838938117</v>
+      </c>
+      <c r="B220">
+        <v>4.2080380022500004</v>
+      </c>
+      <c r="C220">
+        <v>93.049645423900003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>24.504065513600001</v>
+      </c>
+      <c r="B221">
+        <v>5.6737586855900002</v>
+      </c>
+      <c r="C221">
+        <v>92.765957117100001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>24.759414792099999</v>
+      </c>
+      <c r="B222">
+        <v>4.0189124643799996</v>
+      </c>
+      <c r="C222">
+        <v>92.624115943899994</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>24.9077290297</v>
+      </c>
+      <c r="B223">
+        <v>4.8699762672200002</v>
+      </c>
+      <c r="C223">
+        <v>93.2387709618</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>24.961751699400001</v>
+      </c>
+      <c r="B224">
+        <v>3.4988179802900001</v>
+      </c>
+      <c r="C224">
+        <v>92.671394348099994</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>25.231289863600001</v>
+      </c>
+      <c r="B225">
+        <v>3.4988179802900001</v>
+      </c>
+      <c r="C225">
+        <v>93.286049366</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>25.249600410500001</v>
+      </c>
+      <c r="B226">
+        <v>4.49172593653</v>
+      </c>
+      <c r="C226">
+        <v>93.096923828100003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>25.509545206999999</v>
+      </c>
+      <c r="B227">
+        <v>3.4988179802900001</v>
+      </c>
+      <c r="C227">
+        <v>92.671394348099994</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>25.606006383899999</v>
+      </c>
+      <c r="B228">
+        <v>3.7825059145700002</v>
+      </c>
+      <c r="C228">
+        <v>92.907804250699996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>25.717386603400001</v>
+      </c>
+      <c r="B229">
+        <v>2.8841607272599998</v>
+      </c>
+      <c r="C229">
+        <v>92.245864868200002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>25.9230405092</v>
+      </c>
+      <c r="B230">
+        <v>2.7895981445900002</v>
+      </c>
+      <c r="C230">
+        <v>92.955082654999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>26.015183329599999</v>
+      </c>
+      <c r="B231">
+        <v>3.9716310799099999</v>
+      </c>
+      <c r="C231">
+        <v>92.529553175000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>26.225847005799999</v>
+      </c>
+      <c r="B232">
+        <v>1.8912529572800001</v>
+      </c>
+      <c r="C232">
+        <v>92.340427637100007</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>26.376610994299998</v>
+      </c>
+      <c r="B233">
+        <v>3.0732860788699998</v>
+      </c>
+      <c r="C233">
+        <v>91.442078351999996</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>26.419717073400001</v>
+      </c>
+      <c r="B234">
+        <v>2.45862882584</v>
+      </c>
+      <c r="C234">
+        <v>92.718678712799999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>26.653021574</v>
+      </c>
+      <c r="B235">
+        <v>1.9858155399599999</v>
+      </c>
+      <c r="C235">
+        <v>91.347515583000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>26.754912734000001</v>
+      </c>
+      <c r="B236">
+        <v>2.8841607272599998</v>
+      </c>
+      <c r="C236">
+        <v>91.442078351999996</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>26.870548725100001</v>
+      </c>
+      <c r="B237">
+        <v>1.65484640747</v>
+      </c>
+      <c r="C237">
+        <v>92.104017734500005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>27.163645625099999</v>
+      </c>
+      <c r="B238">
+        <v>2.45862882584</v>
+      </c>
+      <c r="C238">
+        <v>92.056739330300005</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>27.185249328600001</v>
+      </c>
+      <c r="B239">
+        <v>1.65484640747</v>
+      </c>
+      <c r="C239">
+        <v>91.820329427700003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>27.384942769999999</v>
+      </c>
+      <c r="B240">
+        <v>1.56028373167</v>
+      </c>
+      <c r="C240">
+        <v>91.9621765614</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>27.415937185299999</v>
+      </c>
+      <c r="B241">
+        <v>1.9858155399599999</v>
+      </c>
+      <c r="C241">
+        <v>91.773051023500003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>27.559721469900001</v>
+      </c>
+      <c r="B242">
+        <v>1.5130023472</v>
+      </c>
+      <c r="C242">
+        <v>91.914892196699995</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>27.748870849599999</v>
+      </c>
+      <c r="B243">
+        <v>1.37115838006</v>
+      </c>
+      <c r="C243">
+        <v>92.671394348099994</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>27.812674641600001</v>
+      </c>
+      <c r="B244">
+        <v>1.08747044578</v>
+      </c>
+      <c r="C244">
+        <v>91.867613792399993</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>27.9813349247</v>
+      </c>
+      <c r="B245">
+        <v>0.99290776997800001</v>
+      </c>
+      <c r="C245">
+        <v>91.300237178800003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>28.132769465399999</v>
+      </c>
+      <c r="B246">
+        <v>1.46572105587</v>
+      </c>
+      <c r="C246">
+        <v>91.016548872000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>28.2340824604</v>
+      </c>
+      <c r="B247">
+        <v>1.0401891544499999</v>
+      </c>
+      <c r="C247">
+        <v>91.111111640900006</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>28.4129977226</v>
+      </c>
+      <c r="B248">
+        <v>1.22931441292</v>
+      </c>
+      <c r="C248">
+        <v>91.631203889800005</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>28.4778505564</v>
+      </c>
+      <c r="B249">
+        <v>0.52009457722300001</v>
+      </c>
+      <c r="C249">
+        <v>90.2600467205</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>28.626817464799998</v>
+      </c>
+      <c r="B250">
+        <v>0.89834518730599999</v>
+      </c>
+      <c r="C250">
+        <v>91.489362716700001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>28.762894868899998</v>
+      </c>
+      <c r="B251">
+        <v>1.13475173712</v>
+      </c>
+      <c r="C251">
+        <v>90.543735027300002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>28.8916170597</v>
+      </c>
+      <c r="B252">
+        <v>0.61465720646099997</v>
+      </c>
+      <c r="C252">
+        <v>90.827423334100004</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>29.0322244167</v>
+      </c>
+      <c r="B253">
+        <v>0.66193854436300004</v>
+      </c>
+      <c r="C253">
+        <v>90.496456623100002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>29.068389535000001</v>
+      </c>
+      <c r="B254">
+        <v>0.52009457722300001</v>
+      </c>
+      <c r="C254">
+        <v>90.543735027300002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>29.334947466900001</v>
+      </c>
+      <c r="B255">
+        <v>0.472813239321</v>
+      </c>
+      <c r="C255">
+        <v>90.449172258399997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>29.3443828821</v>
+      </c>
+      <c r="B256">
+        <v>0.89834518730599999</v>
+      </c>
+      <c r="C256">
+        <v>90.543735027300002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>29.463732242599999</v>
+      </c>
+      <c r="B257">
+        <v>0.28368793427900002</v>
+      </c>
+      <c r="C257">
+        <v>90.732860565199999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>29.6147435904</v>
+      </c>
+      <c r="B258">
+        <v>0.61465720646099997</v>
+      </c>
+      <c r="C258">
+        <v>89.929080009499998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>29.682788252800002</v>
+      </c>
+      <c r="B259">
+        <v>0.23640661966099999</v>
+      </c>
+      <c r="C259">
+        <v>89.787232875800001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
         <v>29.8844575882</v>
       </c>
-      <c r="B202">
+      <c r="B260">
         <v>0.28368793427900002</v>
       </c>
-      <c r="C202">
+      <c r="C260">
         <v>89.645391702699996</v>
       </c>
     </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>29.895153641699999</v>
+      </c>
+      <c r="B261">
+        <v>0.33096927218099997</v>
+      </c>
+      <c r="C261">
+        <v>89.834517240500006</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>30.2148282528</v>
+      </c>
+      <c r="B262">
+        <v>0.23640661966099999</v>
+      </c>
+      <c r="C262">
+        <v>89.456266164799999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>30.447858572000001</v>
+      </c>
+      <c r="B263">
+        <v>0.14184396714</v>
+      </c>
+      <c r="C263">
+        <v>88.747042417499998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>30.731093883500002</v>
+      </c>
+      <c r="B264">
+        <v>0.33096927218099997</v>
+      </c>
+      <c r="C264">
+        <v>88.936167955399995</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>31.048020720499999</v>
+      </c>
+      <c r="B265">
+        <v>0.33096927218099997</v>
+      </c>
+      <c r="C265">
+        <v>88.605201244400007</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>31.288748979600001</v>
+      </c>
+      <c r="B266">
+        <v>0.14184396714</v>
+      </c>
+      <c r="C266">
+        <v>88.888889551199995</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>31.557869911200001</v>
+      </c>
+      <c r="B267">
+        <v>0.23640661966099999</v>
+      </c>
+      <c r="C267">
+        <v>88.321512937500003</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>31.735277175899999</v>
+      </c>
+      <c r="B268">
+        <v>0.14184396714</v>
+      </c>
+      <c r="C268">
+        <v>87.044918537100003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>32.007920742000003</v>
+      </c>
+      <c r="B269">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C269">
+        <v>85.390073060999995</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>32.272374630000002</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>87.044918537100003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>32.497346401199998</v>
+      </c>
+      <c r="B271">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C271">
+        <v>86.903071403499993</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>32.739743590400003</v>
+      </c>
+      <c r="B272">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C272">
+        <v>85.910165309899995</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>32.899516820899997</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>84.491723775899999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>33.1649512053</v>
+      </c>
+      <c r="B274">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C274">
+        <v>84.160757064799995</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>33.358648419399998</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>84.208035469099997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>33.588263392400002</v>
+      </c>
+      <c r="B276">
+        <v>9.4562646700100006E-2</v>
+      </c>
+      <c r="C276">
+        <v>82.553189992900002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>33.796268701599999</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>83.546102047000005</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>33.995905518500003</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>82.931441068599995</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>34.204000234600002</v>
+      </c>
+      <c r="B279">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C279">
+        <v>81.087470054600004</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>34.390050172800002</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>79.574465751600002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>34.619796276099997</v>
+      </c>
+      <c r="B281">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C281">
+        <v>80.425530672099995</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>34.735015034699998</v>
+      </c>
+      <c r="B282">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C282">
+        <v>78.770685195900001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>34.866723418200003</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>77.399528026599995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>35.115832090399998</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>76.784867048300001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>35.235053300899999</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>75.271868705700001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>35.399696230899998</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>74.988180398899999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>35.555711388600002</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>75.650119781499995</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>35.764864087100001</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>75.035458803200001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>35.934120416600003</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>74.326241016400004</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>35.975602269200003</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>73.427897691699997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>36.165878176699998</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>71.631205081900006</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>36.284884810400001</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>71.016550064100002</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>36.486878991099999</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>71.442079544099997</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>36.606276035299999</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>71.394801139799995</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>36.679351329799999</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>69.4562673569</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>36.890065669999998</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>66.288417577700002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>36.937564611399999</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>67.612290382400005</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>37.048396468200004</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>66.099292039900007</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>37.216892838500002</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>66.099292039900007</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>37.258365750300001</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>65.673756599399994</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>37.449839711199999</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>61.276596784600002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>37.5026494265</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>62.222224474000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>37.626898288699998</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>62.127661705000001</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:C202">
-    <sortCondition ref="A1:A202"/>
+  <sortState ref="A1:C303">
+    <sortCondition ref="A1:A303"/>
   </sortState>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
   <headerFooter>

--- a/Datasheets.xlsx
+++ b/Datasheets.xlsx
@@ -141,6 +141,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -856,6 +857,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -946,11 +948,12 @@
                     <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>Percent Change</a:t>
+                  <a:t>Percent Noise</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5987,7 +5990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -6812,7 +6817,7 @@
   <dimension ref="A1:C303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Datasheets.xlsx
+++ b/Datasheets.xlsx
@@ -141,7 +141,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -799,11 +798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1896213776"/>
-        <c:axId val="1896207792"/>
+        <c:axId val="1768709312"/>
+        <c:axId val="1768702784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1896207792"/>
+        <c:axId val="1768702784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +856,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -905,12 +903,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1896213776"/>
+        <c:crossAx val="1768709312"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1896213776"/>
+        <c:axId val="1768709312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +951,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1001,7 +998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1896207792"/>
+        <c:crossAx val="1768702784"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4825,11 +4822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98698368"/>
-        <c:axId val="98686400"/>
+        <c:axId val="1768704960"/>
+        <c:axId val="1768703328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98698368"/>
+        <c:axId val="1768704960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4942,12 +4939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98686400"/>
+        <c:crossAx val="1768703328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98686400"/>
+        <c:axId val="1768703328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5060,7 +5057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98698368"/>
+        <c:crossAx val="1768704960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5695,15 +5692,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6817,7 +6814,7 @@
   <dimension ref="A1:C303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Datasheets.xlsx
+++ b/Datasheets.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart2" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart3" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Chart4" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Chart1" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -124,7 +129,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -821,11 +833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1075122976"/>
-        <c:axId val="-1075110464"/>
+        <c:axId val="583612512"/>
+        <c:axId val="583600000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1075110464"/>
+        <c:axId val="583600000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,12 +939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1075122976"/>
+        <c:crossAx val="583612512"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1075122976"/>
+        <c:axId val="583612512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1075110464"/>
+        <c:crossAx val="583600000"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1074,11 +1086,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1097,6 +1104,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Single Layer NN vs Single Layer NN with Hopfield</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4847,11 +4879,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1075109376"/>
-        <c:axId val="-1075108288"/>
+        <c:axId val="889967456"/>
+        <c:axId val="889976704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1075109376"/>
+        <c:axId val="889967456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4964,12 +4996,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1075108288"/>
+        <c:crossAx val="889976704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1075108288"/>
+        <c:axId val="889976704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5082,7 +5114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1075109376"/>
+        <c:crossAx val="889967456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5123,11 +5155,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5146,6 +5173,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Single</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Layer NN vs Multi Layer NN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -10128,11 +10185,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1057575232"/>
-        <c:axId val="-1057573600"/>
+        <c:axId val="889977792"/>
+        <c:axId val="889978336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1057575232"/>
+        <c:axId val="889977792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10245,12 +10302,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057573600"/>
+        <c:crossAx val="889978336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1057573600"/>
+        <c:axId val="889978336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10363,7 +10420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057575232"/>
+        <c:crossAx val="889977792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10407,6 +10464,3303 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multi-Layer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> NN vs Multi-Layer NN with Hopfield</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$1:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78838281333399995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5910182148200001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3564843460899998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.12367491424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.85912247002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6012643724700002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3215470165000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0639452189199998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7730866372599996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4510820210000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1186413764999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7868511676800001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4529725611199993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.065092891500001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.8111552894</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.3541997969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.992816627</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.599170208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.2491230965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.7912660837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.357616007300001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.9175047874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.482841432100001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.036374866999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.5859177709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.1522289515</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.653465271000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.145921826399999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.693174421799998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.1783770919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.695204496399999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.156185328999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.625269413000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.067477762700001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.474139392400001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.954771876300001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.433684766300001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.8630036116</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.271034658000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.6896321177</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.0906596184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.481530487499999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.869459867500002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.319769978499998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.675061345100001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.050499081600002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.371181011200001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.760706305500001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.086898684499999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.380594611199999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.752688527099998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.089851141</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.429916501000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.753265738500001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.0379703045</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.341718554500002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.6069800854</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.913425445600001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.2005946636</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.480116605799999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.778691172599999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.0653030872</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.338724494000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.4958542585</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31.780830025699998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.0077687502</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.260769605599997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.474899292000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32.793951034499997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.958203554199997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.1587195396</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33.401757478699999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33.577594161</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33.809617161799999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33.993563055999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.2338711023</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34.406921267500003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.526193141900002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.715592861200001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34.919303655599997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.134342312800001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35.233902931199999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>35.4582518339</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35.539290309000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35.733813047399998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35.881271958399999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35.970538854600001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36.165228486099998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36.2688601017</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>36.444929242100002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36.549481749500004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.708119511600003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.823618412000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36.938986182199997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37.102967500699997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37.1210902929</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37.3094767332</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37.428000569300004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37.509825825699998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37.601807713500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>98.7706840038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.439717292799997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.203307390199996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.257685661300002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.453899145099996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.697396993599995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.468086957899999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.245864868200002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.598107338000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.517732381800002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.586286544800004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.763591289499999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.468082189599997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.638298988299994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.390068292600006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.669029712700002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.947991132699997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.895979881300001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.836880683899999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.919622659700003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.002364635500001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.321513533600001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.971630632899998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.411347925699999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.156027793900002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.2245864272</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.4822698534</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.4964539409</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0307325124699993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9030731916399999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.1938535422100003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5862883329399997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4988179802900001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1678486615399999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6004727929799998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.74231676012</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9385343417500001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0803783088899999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.18203312159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0401891544499999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80378251150299995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56737586855900002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.33096927218099997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.472813239321</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18912529340000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28368793427900002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18912529340000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$1:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78838281333399995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5910182148200001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3564843460899998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.12367491424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.85912247002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6012643724700002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3215470165000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0639452189199998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7730866372599996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4510820210000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1186413764999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7868511676800001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4529725611199993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.065092891500001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.8111552894</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.3541997969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.992816627</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.599170208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.2491230965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.7912660837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.357616007300001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.9175047874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.482841432100001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.036374866999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.5859177709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.1522289515</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.653465271000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.145921826399999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.693174421799998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.1783770919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.695204496399999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.156185328999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.625269413000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.067477762700001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.474139392400001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.954771876300001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.433684766300001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.8630036116</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.271034658000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.6896321177</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.0906596184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.481530487499999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.869459867500002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.319769978499998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.675061345100001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.050499081600002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.371181011200001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.760706305500001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.086898684499999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.380594611199999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.752688527099998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.089851141</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.429916501000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.753265738500001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.0379703045</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.341718554500002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.6069800854</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.913425445600001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.2005946636</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.480116605799999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.778691172599999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.0653030872</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.338724494000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.4958542585</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31.780830025699998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.0077687502</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.260769605599997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.474899292000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32.793951034499997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.958203554199997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.1587195396</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33.401757478699999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33.577594161</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33.809617161799999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33.993563055999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.2338711023</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34.406921267500003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.526193141900002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.715592861200001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34.919303655599997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.134342312800001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35.233902931199999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>35.4582518339</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35.539290309000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35.733813047399998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35.881271958399999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35.970538854600001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36.165228486099998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36.2688601017</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>36.444929242100002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36.549481749500004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.708119511600003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.823618412000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36.938986182199997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37.102967500699997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37.1210902929</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37.3094767332</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37.428000569300004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37.509825825699998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37.601807713500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$1:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>95.177304744699995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.893616437899993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.130026340499995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.366430282600007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.893616437899993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.846338033699993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.940900802599998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.893616437899993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.988179206799998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.609928131100006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.846338033699993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.515365362200001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.278961420100003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.846338033699993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94.562649726900005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.184398651099997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.373524188999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.704490899999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.042551517500002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.704490899999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.515365362200001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.420802593199994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94.420802593199994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93.900710344299995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94.562649726900005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>93.7588632107</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94.184398651099997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>94.042551517500002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94.137114286400006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>93.806147575400004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>94.137114286400006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>93.427896499599996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93.853425979600004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>93.2387709618</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93.096923828100003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92.813241481800006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.955082654999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>92.955082654999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93.002367019700003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.725766658799998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92.671394348099994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92.624115943899994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>93.617022037500007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92.245864868200002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>91.631203889800005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>92.056739330300005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>91.631203889800005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90.591019392000007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>91.347515583000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90.874701738400006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91.489362716700001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>90.023642778400003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89.881795644799993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>89.787232875800001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>89.456266164799999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>88.9834523201</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>88.652479648600007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>88.085108995400006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>88.179671764399998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.416075706499996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>88.037824630700001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>86.004728078799999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86.052006483100001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86.335694789900003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>84.633570909499994</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.295510292100005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85.673761367799997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82.789599895500004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83.309692144400003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>83.073288202300006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>81.796687841400001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81.276595592500001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>81.843972206100005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>77.730494737599997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78.770685195900001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>78.676122426999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>76.2647747993</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>77.919620275499994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>77.210402488699998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>75.839245319400007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>76.2174963951</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>73.333334922800006</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>74.657207727400007</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>72.340422868700003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71.536642313000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>72.009456157700001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>69.787234067900002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>69.078016281100005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>67.517727613399998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>66.241133212999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>67.565011978100003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>64.869976043700007</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>64.066195488000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>61.3711595535</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>61.229312419899998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59.479904174799998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="580973856"/>
+        <c:axId val="580980384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="580973856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Noise</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580980384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="580980384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580973856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multi-Layer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> NN vs Multi-Layer NN with Hopfield</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$1:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78838281333399995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5910182148200001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3564843460899998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.12367491424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.85912247002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6012643724700002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3215470165000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0639452189199998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7730866372599996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4510820210000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1186413764999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7868511676800001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4529725611199993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.065092891500001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.8111552894</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.3541997969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.992816627</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.599170208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.2491230965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.7912660837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.357616007300001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.9175047874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.482841432100001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.036374866999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.5859177709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.1522289515</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.653465271000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.145921826399999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.693174421799998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.1783770919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.695204496399999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.156185328999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.625269413000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.067477762700001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.474139392400001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.954771876300001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.433684766300001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.8630036116</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.271034658000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.6896321177</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.0906596184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.481530487499999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.869459867500002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.319769978499998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.675061345100001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.050499081600002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.371181011200001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.760706305500001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.086898684499999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.380594611199999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.752688527099998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.089851141</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.429916501000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.753265738500001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.0379703045</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.341718554500002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.6069800854</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.913425445600001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.2005946636</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.480116605799999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.778691172599999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.0653030872</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.338724494000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.4958542585</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31.780830025699998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.0077687502</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.260769605599997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.474899292000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32.793951034499997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.958203554199997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.1587195396</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33.401757478699999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33.577594161</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33.809617161799999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33.993563055999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.2338711023</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34.406921267500003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.526193141900002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.715592861200001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34.919303655599997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.134342312800001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35.233902931199999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>35.4582518339</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35.539290309000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35.733813047399998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35.881271958399999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35.970538854600001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36.165228486099998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36.2688601017</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>36.444929242100002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36.549481749500004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.708119511600003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.823618412000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36.938986182199997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37.102967500699997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37.1210902929</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37.3094767332</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37.428000569300004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37.509825825699998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37.601807713500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>98.7706840038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.439717292799997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.203307390199996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.257685661300002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.453899145099996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.697396993599995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.468086957899999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.245864868200002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.598107338000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.517732381800002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.586286544800004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.763591289499999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.468082189599997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.638298988299994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.390068292600006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.669029712700002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.947991132699997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.895979881300001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.836880683899999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.919622659700003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.002364635500001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.321513533600001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.971630632899998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.411347925699999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.156027793900002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.2245864272</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.4822698534</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.4964539409</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0307325124699993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9030731916399999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.1938535422100003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5862883329399997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4988179802900001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1678486615399999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6004727929799998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.74231676012</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9385343417500001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0803783088899999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.18203312159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0401891544499999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80378251150299995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56737586855900002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.33096927218099997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.472813239321</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18912529340000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28368793427900002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18912529340000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.14184396714</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.7281323350000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$1:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78838281333399995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5910182148200001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3564843460899998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.12367491424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.85912247002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6012643724700002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3215470165000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0639452189199998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7730866372599996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4510820210000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1186413764999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7868511676800001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4529725611199993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.065092891500001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.8111552894</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.3541997969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.992816627</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.599170208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.2491230965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.7912660837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.357616007300001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.9175047874</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.482841432100001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.036374866999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.5859177709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.1522289515</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.653465271000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.145921826399999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.693174421799998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.1783770919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.695204496399999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.156185328999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.625269413000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.067477762700001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.474139392400001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.954771876300001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.433684766300001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.8630036116</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.271034658000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.6896321177</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.0906596184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.481530487499999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.869459867500002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.319769978499998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.675061345100001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.050499081600002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.371181011200001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.760706305500001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.086898684499999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.380594611199999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.752688527099998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.089851141</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.429916501000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.753265738500001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.0379703045</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.341718554500002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.6069800854</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.913425445600001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.2005946636</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.480116605799999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.778691172599999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.0653030872</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.338724494000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.4958542585</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31.780830025699998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.0077687502</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.260769605599997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.474899292000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32.793951034499997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.958203554199997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.1587195396</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33.401757478699999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33.577594161</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33.809617161799999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33.993563055999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.2338711023</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34.406921267500003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.526193141900002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.715592861200001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34.919303655599997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.134342312800001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35.233902931199999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>35.4582518339</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35.539290309000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35.733813047399998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35.881271958399999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35.970538854600001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36.165228486099998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36.2688601017</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>36.444929242100002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36.549481749500004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.708119511600003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.823618412000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36.938986182199997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37.102967500699997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37.1210902929</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37.3094767332</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37.428000569300004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37.509825825699998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37.601807713500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$1:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>95.177304744699995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.893616437899993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.130026340499995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.366430282600007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.893616437899993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.846338033699993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.940900802599998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.893616437899993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.988179206799998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.609928131100006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.035463571500003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.846338033699993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.515365362200001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.278961420100003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.846338033699993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94.562649726900005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.184398651099997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.373524188999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.704490899999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.042551517500002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.704490899999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.515365362200001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.420802593199994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.947988748599997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94.420802593199994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93.900710344299995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94.562649726900005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>93.7588632107</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94.184398651099997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>94.042551517500002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94.137114286400006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>93.806147575400004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>94.137114286400006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>93.427896499599996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93.853425979600004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>93.2387709618</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93.096923828100003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92.813241481800006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.955082654999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>92.955082654999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93.002367019700003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.725766658799998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92.671394348099994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92.624115943899994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>93.617022037500007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92.245864868200002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>91.631203889800005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>92.056739330300005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>91.631203889800005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90.591019392000007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>91.347515583000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90.874701738400006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91.489362716700001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>90.023642778400003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89.881795644799993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>89.787232875800001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>89.456266164799999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>88.9834523201</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>88.652479648600007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>88.085108995400006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>88.179671764399998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.416075706499996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>88.037824630700001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>86.004728078799999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86.052006483100001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86.335694789900003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>84.633570909499994</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.295510292100005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85.673761367799997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82.789599895500004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83.309692144400003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>83.073288202300006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>81.796687841400001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81.276595592500001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>81.843972206100005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>77.730494737599997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78.770685195900001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>78.676122426999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>76.2647747993</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>77.919620275499994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>77.210402488699998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>75.839245319400007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>76.2174963951</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>73.333334922800006</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>74.657207727400007</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>72.340422868700003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71.536642313000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>72.009456157700001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>69.787234067900002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>69.078016281100005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>67.517727613399998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>66.241133212999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>67.565011978100003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>64.869976043700007</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>64.066195488000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>61.3711595535</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>61.229312419899998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59.479904174799998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="580985824"/>
+        <c:axId val="580975488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="580985824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Noise</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580975488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="580975488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580985824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10485,6 +13839,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11556,15 +14990,1097 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="4351507" y="235211"/>
-    <xdr:ext cx="9364493" cy="4784464"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11583,23 +16099,15 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11612,29 +16120,21 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11647,7 +16147,61 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4305300" y="542925"/>
+    <xdr:ext cx="6315075" cy="3952875"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12734,7 +17288,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12743,7 +17296,7 @@
   <dimension ref="A1:C303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16096,7 +20649,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16104,8 +20656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20564,6 +25116,1137 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>98.7706840038</v>
+      </c>
+      <c r="C1">
+        <v>95.177304744699995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.78838281333399995</v>
+      </c>
+      <c r="B2">
+        <v>98.439717292799997</v>
+      </c>
+      <c r="C2">
+        <v>94.893616437899993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1.5910182148200001</v>
+      </c>
+      <c r="B3">
+        <v>98.203307390199996</v>
+      </c>
+      <c r="C3">
+        <v>95.035463571500003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2.3564843460899998</v>
+      </c>
+      <c r="B4">
+        <v>97.257685661300002</v>
+      </c>
+      <c r="C4">
+        <v>95.130026340499995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3.12367491424</v>
+      </c>
+      <c r="B5">
+        <v>96.453899145099996</v>
+      </c>
+      <c r="C5">
+        <v>95.366430282600007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3.85912247002</v>
+      </c>
+      <c r="B6">
+        <v>95.697396993599995</v>
+      </c>
+      <c r="C6">
+        <v>95.035463571500003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4.6012643724700002</v>
+      </c>
+      <c r="B7">
+        <v>94.468086957899999</v>
+      </c>
+      <c r="C7">
+        <v>94.893616437899993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5.3215470165000003</v>
+      </c>
+      <c r="B8">
+        <v>92.245864868200002</v>
+      </c>
+      <c r="C8">
+        <v>94.846338033699993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6.0639452189199998</v>
+      </c>
+      <c r="B9">
+        <v>89.598107338000005</v>
+      </c>
+      <c r="C9">
+        <v>94.940900802599998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>6.7730866372599996</v>
+      </c>
+      <c r="B10">
+        <v>87.517732381800002</v>
+      </c>
+      <c r="C10">
+        <v>94.893616437899993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7.4510820210000004</v>
+      </c>
+      <c r="B11">
+        <v>84.586286544800004</v>
+      </c>
+      <c r="C11">
+        <v>95.035463571500003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8.1186413764999994</v>
+      </c>
+      <c r="B12">
+        <v>79.763591289499999</v>
+      </c>
+      <c r="C12">
+        <v>94.988179206799998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>8.7868511676800001</v>
+      </c>
+      <c r="B13">
+        <v>74.468082189599997</v>
+      </c>
+      <c r="C13">
+        <v>94.609928131100006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>9.4529725611199993</v>
+      </c>
+      <c r="B14">
+        <v>70.638298988299994</v>
+      </c>
+      <c r="C14">
+        <v>95.035463571500003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>10.065092891500001</v>
+      </c>
+      <c r="B15">
+        <v>65.390068292600006</v>
+      </c>
+      <c r="C15">
+        <v>94.846338033699993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>10.8111552894</v>
+      </c>
+      <c r="B16">
+        <v>59.669029712700002</v>
+      </c>
+      <c r="C16">
+        <v>94.515365362200001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>11.3541997969</v>
+      </c>
+      <c r="B17">
+        <v>53.947991132699997</v>
+      </c>
+      <c r="C17">
+        <v>94.278961420100003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>11.992816627</v>
+      </c>
+      <c r="B18">
+        <v>47.895979881300001</v>
+      </c>
+      <c r="C18">
+        <v>94.846338033699993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>12.599170208</v>
+      </c>
+      <c r="B19">
+        <v>42.836880683899999</v>
+      </c>
+      <c r="C19">
+        <v>94.562649726900005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>13.2491230965</v>
+      </c>
+      <c r="B20">
+        <v>37.919622659700003</v>
+      </c>
+      <c r="C20">
+        <v>94.184398651099997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>13.7912660837</v>
+      </c>
+      <c r="B21">
+        <v>33.002364635500001</v>
+      </c>
+      <c r="C21">
+        <v>94.373524188999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>14.357616007300001</v>
+      </c>
+      <c r="B22">
+        <v>28.321513533600001</v>
+      </c>
+      <c r="C22">
+        <v>94.704490899999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>14.9175047874</v>
+      </c>
+      <c r="B23">
+        <v>23.971630632899998</v>
+      </c>
+      <c r="C23">
+        <v>94.042551517500002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>15.482841432100001</v>
+      </c>
+      <c r="B24">
+        <v>22.411347925699999</v>
+      </c>
+      <c r="C24">
+        <v>94.704490899999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>16.036374866999999</v>
+      </c>
+      <c r="B25">
+        <v>18.156027793900002</v>
+      </c>
+      <c r="C25">
+        <v>94.515365362200001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>16.5859177709</v>
+      </c>
+      <c r="B26">
+        <v>15.2245864272</v>
+      </c>
+      <c r="C26">
+        <v>94.420802593199994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>17.1522289515</v>
+      </c>
+      <c r="B27">
+        <v>12.4822698534</v>
+      </c>
+      <c r="C27">
+        <v>93.947988748599997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>17.653465271000002</v>
+      </c>
+      <c r="B28">
+        <v>10.4964539409</v>
+      </c>
+      <c r="C28">
+        <v>94.420802593199994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>18.145921826399999</v>
+      </c>
+      <c r="B29">
+        <v>9.0307325124699993</v>
+      </c>
+      <c r="C29">
+        <v>93.900710344299995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>18.693174421799998</v>
+      </c>
+      <c r="B30">
+        <v>6.9030731916399999</v>
+      </c>
+      <c r="C30">
+        <v>94.562649726900005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>19.1783770919</v>
+      </c>
+      <c r="B31">
+        <v>6.1938535422100003</v>
+      </c>
+      <c r="C31">
+        <v>93.7588632107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>19.695204496399999</v>
+      </c>
+      <c r="B32">
+        <v>4.5862883329399997</v>
+      </c>
+      <c r="C32">
+        <v>94.184398651099997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>20.156185328999999</v>
+      </c>
+      <c r="B33">
+        <v>3.4988179802900001</v>
+      </c>
+      <c r="C33">
+        <v>94.042551517500002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>20.625269413000002</v>
+      </c>
+      <c r="B34">
+        <v>3.1678486615399999</v>
+      </c>
+      <c r="C34">
+        <v>94.137114286400006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>21.067477762700001</v>
+      </c>
+      <c r="B35">
+        <v>2.6004727929799998</v>
+      </c>
+      <c r="C35">
+        <v>93.806147575400004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>21.474139392400001</v>
+      </c>
+      <c r="B36">
+        <v>2.74231676012</v>
+      </c>
+      <c r="C36">
+        <v>94.137114286400006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>21.954771876300001</v>
+      </c>
+      <c r="B37">
+        <v>1.9385343417500001</v>
+      </c>
+      <c r="C37">
+        <v>93.427896499599996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>22.433684766300001</v>
+      </c>
+      <c r="B38">
+        <v>2.0803783088899999</v>
+      </c>
+      <c r="C38">
+        <v>93.853425979600004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>22.8630036116</v>
+      </c>
+      <c r="B39">
+        <v>1.18203312159</v>
+      </c>
+      <c r="C39">
+        <v>93.2387709618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>23.271034658000001</v>
+      </c>
+      <c r="B40">
+        <v>1.0401891544499999</v>
+      </c>
+      <c r="C40">
+        <v>93.096923828100003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>23.6896321177</v>
+      </c>
+      <c r="B41">
+        <v>0.80378251150299995</v>
+      </c>
+      <c r="C41">
+        <v>92.813241481800006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>24.0906596184</v>
+      </c>
+      <c r="B42">
+        <v>0.56737586855900002</v>
+      </c>
+      <c r="C42">
+        <v>92.955082654999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>24.481530487499999</v>
+      </c>
+      <c r="B43">
+        <v>0.33096927218099997</v>
+      </c>
+      <c r="C43">
+        <v>92.955082654999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>24.869459867500002</v>
+      </c>
+      <c r="B44">
+        <v>0.472813239321</v>
+      </c>
+      <c r="C44">
+        <v>93.002367019700003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>25.319769978499998</v>
+      </c>
+      <c r="B45">
+        <v>0.18912529340000001</v>
+      </c>
+      <c r="C45">
+        <v>91.725766658799998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>25.675061345100001</v>
+      </c>
+      <c r="B46">
+        <v>0.28368793427900002</v>
+      </c>
+      <c r="C46">
+        <v>92.671394348099994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>26.050499081600002</v>
+      </c>
+      <c r="B47">
+        <v>0.14184396714</v>
+      </c>
+      <c r="C47">
+        <v>92.624115943899994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>26.371181011200001</v>
+      </c>
+      <c r="B48">
+        <v>0.18912529340000001</v>
+      </c>
+      <c r="C48">
+        <v>93.617022037500007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>26.760706305500001</v>
+      </c>
+      <c r="B49">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C49">
+        <v>92.245864868200002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>27.086898684499999</v>
+      </c>
+      <c r="B50">
+        <v>0.14184396714</v>
+      </c>
+      <c r="C50">
+        <v>91.631203889800005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>27.380594611199999</v>
+      </c>
+      <c r="B51">
+        <v>0.14184396714</v>
+      </c>
+      <c r="C51">
+        <v>92.056739330300005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>27.752688527099998</v>
+      </c>
+      <c r="B52">
+        <v>0.14184396714</v>
+      </c>
+      <c r="C52">
+        <v>91.631203889800005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>28.089851141</v>
+      </c>
+      <c r="B53">
+        <v>0.14184396714</v>
+      </c>
+      <c r="C53">
+        <v>90.591019392000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>28.429916501000001</v>
+      </c>
+      <c r="B54">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C54">
+        <v>91.347515583000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>28.753265738500001</v>
+      </c>
+      <c r="B55">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C55">
+        <v>90.874701738400006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>29.0379703045</v>
+      </c>
+      <c r="B56">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C56">
+        <v>91.489362716700001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>29.341718554500002</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>90.023642778400003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>29.6069800854</v>
+      </c>
+      <c r="B58">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C58">
+        <v>89.881795644799993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>29.913425445600001</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>89.787232875800001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>30.2005946636</v>
+      </c>
+      <c r="B60">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C60">
+        <v>89.456266164799999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>30.480116605799999</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>88.9834523201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>30.778691172599999</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>88.652479648600007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>31.0653030872</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>88.085108995400006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>31.338724494000001</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>88.179671764399998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>31.4958542585</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>88.416075706499996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>31.780830025699998</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>88.037824630700001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>32.0077687502</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>86.004728078799999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>32.260769605599997</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>86.052006483100001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>32.474899292000003</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>86.335694789900003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>32.793951034499997</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>84.633570909499994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>32.958203554199997</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>85.295510292100005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>33.1587195396</v>
+      </c>
+      <c r="B72">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C72">
+        <v>85.673761367799997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>33.401757478699999</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>82.789599895500004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>33.577594161</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>83.309692144400003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>33.809617161799999</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>83.073288202300006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>33.993563055999999</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>81.796687841400001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>34.2338711023</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>81.276595592500001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>34.406921267500003</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>81.843972206100005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>34.526193141900002</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>77.730494737599997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>34.715592861200001</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>78.770685195900001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>34.919303655599997</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>78.676122426999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>35.134342312800001</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>76.2647747993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>35.233902931199999</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>77.919620275499994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>35.4582518339</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>77.210402488699998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>35.539290309000002</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>75.839245319400007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>35.733813047399998</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>76.2174963951</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>35.881271958399999</v>
+      </c>
+      <c r="B87">
+        <v>4.7281323350000001E-2</v>
+      </c>
+      <c r="C87">
+        <v>73.333334922800006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>35.970538854600001</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>74.657207727400007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>36.165228486099998</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>72.340422868700003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>36.2688601017</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>71.536642313000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>36.444929242100002</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>72.009456157700001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>36.549481749500004</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>69.787234067900002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>36.708119511600003</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>69.078016281100005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>36.823618412000002</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>67.517727613399998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>36.938986182199997</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>66.241133212999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>37.102967500699997</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>67.565011978100003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>37.1210902929</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>64.869976043700007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>37.3094767332</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>64.066195488000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>37.428000569300004</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>61.3711595535</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>37.509825825699998</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>61.229312419899998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>37.601807713500001</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>59.479904174799998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>